--- a/Documentacion/Planificacion/_Calendario.xlsx
+++ b/Documentacion/Planificacion/_Calendario.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="24915" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Calendario!$D$6:$CB$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Calendario!$C$1:$AM$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Calendario!$C$1:$AM$110</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>TFM: SIMULADOR DE RUTAS PARA COCHES ELÉCTRICOS</t>
   </si>
@@ -65,13 +65,10 @@
     <t>W14</t>
   </si>
   <si>
-    <t>¿Quién?</t>
+    <t>0.- Planning división tareas + Diseño funcional preliminar</t>
   </si>
   <si>
     <t>1.- Planteamiento del problema</t>
-  </si>
-  <si>
-    <t>FECHA LÍMITE</t>
   </si>
   <si>
     <t>FECHA DE ENTREGA</t>
@@ -80,31 +77,25 @@
     <t>FECHA DE EXPOSICIÓN</t>
   </si>
   <si>
-    <t>L</t>
+    <t>Herramientas</t>
   </si>
   <si>
-    <t>Herramientas</t>
+    <t>ok</t>
   </si>
   <si>
     <t>GCP, Docker, Github, Python, Flask, VM</t>
   </si>
   <si>
-    <t>Requisitos?</t>
+    <t>Requisitos</t>
   </si>
   <si>
-    <t>Instalación?</t>
+    <t>Instalación</t>
   </si>
   <si>
     <t>VM</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Docker</t>
-  </si>
-  <si>
-    <t>I/M/B</t>
   </si>
   <si>
     <t>Variables Input</t>
@@ -122,18 +113,6 @@
     <t>Gasolineras de España</t>
   </si>
   <si>
-    <t>Red de carreteras</t>
-  </si>
-  <si>
-    <t>Volumen tráfico</t>
-  </si>
-  <si>
-    <t>Más?</t>
-  </si>
-  <si>
-    <t>Estimación Volumen BBDDs</t>
-  </si>
-  <si>
     <t>Variables Objetivo</t>
   </si>
   <si>
@@ -143,10 +122,10 @@
     <t>Tiempo de trayecto</t>
   </si>
   <si>
-    <t>Estructurar repositorio</t>
+    <t>Estimación Volumen BBDDs</t>
   </si>
   <si>
-    <t>L/B</t>
+    <t>Estructurar repositorio</t>
   </si>
   <si>
     <t>Estructurar código</t>
@@ -170,16 +149,10 @@
     <t>Recomendación áreas de servicio?</t>
   </si>
   <si>
-    <t>I/M/L/B</t>
-  </si>
-  <si>
     <t>Aprender Cómo usar repositorio</t>
   </si>
   <si>
     <t>2.- Inputs + Montar BBDD</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Trabajar variables</t>
@@ -192,9 +165,6 @@
   </si>
   <si>
     <t>Coordenadas puntos - API Google</t>
-  </si>
-  <si>
-    <t>I/B</t>
   </si>
   <si>
     <t>Capacidad de carga y nº surtidores (Tomtom)</t>
@@ -218,9 +188,6 @@
     <t>Definir problema</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Dibujar ruta entre dos puntos + indicaciones</t>
   </si>
   <si>
@@ -236,16 +203,16 @@
     <t>Complicar el problema</t>
   </si>
   <si>
-    <t>I/L</t>
-  </si>
-  <si>
     <t>Definir restricciones</t>
   </si>
   <si>
     <t>Matriz de distancia ptos de recarga y ciudades</t>
   </si>
   <si>
-    <t>Contruir el modelo - Pruebas</t>
+    <t>Función objetivo y restricciones</t>
+  </si>
+  <si>
+    <t>Pruebas y modificaciones</t>
   </si>
   <si>
     <t>5.- Productivizar - Docker</t>
@@ -257,22 +224,25 @@
     <t>Generación fichero docker-compose.yml</t>
   </si>
   <si>
-    <t>Def. servicios: grafana, db_mysql, flask_app</t>
+    <t>Definición de servicios</t>
   </si>
   <si>
-    <t>Contenido carpetas grafana y db (provisioning  dashboard y datasource, dumps de la db)</t>
+    <t>Grafana</t>
   </si>
   <si>
-    <t>Actualizar contenido</t>
+    <t>db_mysql</t>
   </si>
   <si>
-    <t>Generación fichero DockerFile para crear imagen de flask_app</t>
+    <t>flask_app</t>
   </si>
   <si>
-    <t xml:space="preserve">Actualizar DockerFile según avances de fe y be </t>
+    <t>Contenido carpetas grafana y db</t>
   </si>
   <si>
-    <t>Despliegue en CGP . Pasos</t>
+    <t>Generación DockerFile para crear imagen de flask_app</t>
+  </si>
+  <si>
+    <t>Despliegue: GCP y VM. Pasos</t>
   </si>
   <si>
     <t>6.- Herramienta web</t>
@@ -281,28 +251,28 @@
     <t>Montar diseño y páginas principales</t>
   </si>
   <si>
-    <t>Log-in</t>
+    <t>Sign-up, Log-in, Log-out, Resetpasswors</t>
   </si>
   <si>
-    <t>Registro</t>
+    <t>Index</t>
   </si>
   <si>
-    <t>Índice</t>
+    <t>Route</t>
   </si>
   <si>
-    <t>Ruta</t>
+    <t>User Profile, Car Details</t>
   </si>
   <si>
-    <t>Perfil del usuario</t>
+    <t>Frequent routes</t>
   </si>
   <si>
-    <t>M/B</t>
+    <t>Páginas de errores</t>
+  </si>
+  <si>
+    <t>Configuración y conexión con la base de datos</t>
   </si>
   <si>
     <t>Funcionalidades de usuario</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>Log-in  (email, bbdd en mysql)</t>
@@ -311,7 +281,10 @@
     <t>Log-out</t>
   </si>
   <si>
-    <t>Registrar en una bbdd perfil usuario</t>
+    <t>Acceder a la información de las bbdd</t>
+  </si>
+  <si>
+    <t>Resetear constraseña</t>
   </si>
   <si>
     <t>Funcionalidades del mapa</t>
@@ -330,6 +303,24 @@
   </si>
   <si>
     <t>Linkar función indicaiones</t>
+  </si>
+  <si>
+    <t>Implementación del modelo</t>
+  </si>
+  <si>
+    <t>Definir parámetros de la función</t>
+  </si>
+  <si>
+    <t>Ejecución del modelo desde la app</t>
+  </si>
+  <si>
+    <t>Solventar problemas y errores</t>
+  </si>
+  <si>
+    <t>Productivización</t>
+  </si>
+  <si>
+    <t>Testeo y pruebas</t>
   </si>
   <si>
     <t>7.- Documentación y vídeo</t>
@@ -676,7 +667,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,12 +885,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -912,7 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1203,30 +1182,6 @@
       <top style="medium">
         <color theme="0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1446,7 +1401,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1535,8 +1490,14 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1544,20 +1505,11 @@
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1565,88 +1517,79 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="53" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,19 +1598,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1891,16 +1831,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42690</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101109</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>67509</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1909,139 +1849,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5643390" y="1539384"/>
-          <a:ext cx="144000" cy="118800"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5943601" y="1476375"/>
-          <a:ext cx="1162050" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1000"/>
-            <a:t>Machine</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
-            <a:t> Learning</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>48750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90225</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="3 Estrella de 5 puntas"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7200900" y="1562100"/>
+          <a:off x="371475" y="6858000"/>
           <a:ext cx="144000" cy="118800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -2086,213 +1894,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7448550" y="1485900"/>
-          <a:ext cx="619125" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1000"/>
-            <a:t>Spark</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>182100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="5 Estrella de 5 puntas"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5857875" y="1924050"/>
-          <a:ext cx="144000" cy="118800"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>134475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166425</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="6 Estrella de 5 puntas"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638175" y="2085975"/>
-          <a:ext cx="144000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>182100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>156900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="7 Estrella de 5 puntas"/>
+        <xdr:cNvPr id="3" name="2 Estrella de 5 puntas"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="2276475"/>
+          <a:off x="7305675" y="7191375"/>
           <a:ext cx="144000" cy="118800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -2338,23 +1957,23 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>172575</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>156900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="8 Estrella de 5 puntas"/>
+        <xdr:cNvPr id="4" name="3 Estrella de 5 puntas"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="2276475"/>
+          <a:off x="8896350" y="7191375"/>
           <a:ext cx="144000" cy="118800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -2400,23 +2019,23 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>172575</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>137850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="9 Estrella de 5 puntas"/>
+        <xdr:cNvPr id="5" name="4 Estrella de 5 puntas"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12182475" y="5495925"/>
+          <a:off x="12153900" y="10410825"/>
           <a:ext cx="144000" cy="118800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -2462,23 +2081,23 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>153525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>147375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="10 Estrella de 5 puntas"/>
+        <xdr:cNvPr id="6" name="5 Estrella de 5 puntas"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13763625" y="5505450"/>
+          <a:off x="13735050" y="10420350"/>
           <a:ext cx="144000" cy="118800"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -2522,26 +2141,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="11 CuadroTexto"/>
+        <xdr:cNvPr id="7" name="6 CuadroTexto"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086475" y="1866900"/>
-          <a:ext cx="619125" cy="219075"/>
+          <a:off x="5781675" y="5343525"/>
+          <a:ext cx="619125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2589,24 +2208,24 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="12 CuadroTexto"/>
+        <xdr:cNvPr id="8" name="7 CuadroTexto"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="2085975"/>
-          <a:ext cx="619125" cy="76200"/>
+          <a:off x="7172325" y="6819900"/>
+          <a:ext cx="619125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2654,24 +2273,24 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="13 CuadroTexto"/>
+        <xdr:cNvPr id="9" name="8 CuadroTexto"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8782050" y="2085975"/>
-          <a:ext cx="619125" cy="104775"/>
+          <a:off x="8753475" y="6848475"/>
+          <a:ext cx="619125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2719,23 +2338,23 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="14 CuadroTexto"/>
+        <xdr:cNvPr id="10" name="9 CuadroTexto"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11572875" y="5286375"/>
+          <a:off x="11544300" y="10201275"/>
           <a:ext cx="619125" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2784,14 +2403,335 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="10 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="10201275"/>
+          <a:ext cx="619125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1000"/>
+            <a:t>Reunión</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15011400" y="18497550"/>
+          <a:ext cx="2828925" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1000"/>
+            <a:t>Reuniones</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
+            <a:t> diarias</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>191625</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>99750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="12 Estrella de 5 puntas"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15573375" y="18564225"/>
+          <a:ext cx="144000" cy="118800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>210675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="13 Estrella de 5 puntas"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="5715000"/>
+          <a:ext cx="144000" cy="118800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>172575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="14 Estrella de 5 puntas"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="1924050"/>
+          <a:ext cx="144000" cy="118800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2800,7 +2740,204 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13125450" y="5286375"/>
+          <a:off x="3990975" y="1638300"/>
+          <a:ext cx="619125" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1000"/>
+            <a:t>Reunión</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>14816</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>43392</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>100543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="16 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14140391" y="11206692"/>
+          <a:ext cx="2828926" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1000"/>
+            <a:t>Reuniones</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
+            <a:t> diarias</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>103717</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>46633</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>58475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="17 Estrella de 5 puntas"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14629342" y="11283950"/>
+          <a:ext cx="142941" cy="118800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="18 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="11344275"/>
           <a:ext cx="619125" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3135,20 +3272,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA118"/>
+  <dimension ref="A1:DF113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="T79" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BC52" sqref="BC52"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
     <col min="4" max="7" width="3" style="3" customWidth="1"/>
     <col min="8" max="16" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="36" width="3" style="3" customWidth="1"/>
@@ -3890,7 +4027,7 @@
       <c r="CA9" s="30"/>
       <c r="CB9" s="31"/>
     </row>
-    <row r="10" spans="1:105" ht="12" customHeight="1" thickBot="1">
+    <row r="10" spans="1:105" ht="12" customHeight="1">
       <c r="C10" s="28"/>
       <c r="D10" s="5"/>
       <c r="E10" s="29"/>
@@ -3971,43 +4108,40 @@
       <c r="CB10" s="31"/>
     </row>
     <row r="11" spans="1:105" ht="15" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="C11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="29"/>
+      <c r="O11" s="33"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="31"/>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="37"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="30"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="29"/>
       <c r="Z11" s="29"/>
       <c r="AA11" s="29"/>
       <c r="AB11" s="29"/>
-      <c r="AC11" s="37"/>
+      <c r="AC11" s="29"/>
       <c r="AD11" s="30"/>
       <c r="AE11" s="31"/>
       <c r="AF11" s="29"/>
       <c r="AG11" s="29"/>
-      <c r="AH11" s="37"/>
+      <c r="AH11" s="29"/>
       <c r="AI11" s="29"/>
       <c r="AJ11" s="29"/>
       <c r="AK11" s="30"/>
@@ -4042,64 +4176,52 @@
       <c r="BN11" s="31"/>
       <c r="BO11" s="29"/>
       <c r="BP11" s="29"/>
-      <c r="BQ11" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="BQ11" s="29"/>
       <c r="BR11" s="29"/>
       <c r="BS11" s="29"/>
       <c r="BT11" s="30"/>
-      <c r="BU11" s="38" t="s">
-        <v>18</v>
-      </c>
+      <c r="BU11" s="34"/>
       <c r="BV11" s="29"/>
       <c r="BW11" s="29"/>
       <c r="BX11" s="29"/>
       <c r="BY11" s="29"/>
-      <c r="BZ11" s="38" t="s">
-        <v>19</v>
-      </c>
+      <c r="BZ11" s="29"/>
       <c r="CA11" s="30"/>
       <c r="CB11" s="31"/>
     </row>
-    <row r="12" spans="1:105" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5"/>
+    <row r="12" spans="1:105" ht="12" customHeight="1" thickBot="1">
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="31"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="37"/>
+      <c r="V12" s="29"/>
       <c r="W12" s="30"/>
       <c r="X12" s="31"/>
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="29"/>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="29"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="31"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="29"/>
-      <c r="AH12" s="37"/>
+      <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
       <c r="AJ12" s="29"/>
       <c r="AK12" s="30"/>
@@ -4134,37 +4256,35 @@
       <c r="BN12" s="31"/>
       <c r="BO12" s="29"/>
       <c r="BP12" s="29"/>
-      <c r="BQ12" s="38"/>
+      <c r="BQ12" s="29"/>
       <c r="BR12" s="29"/>
       <c r="BS12" s="29"/>
       <c r="BT12" s="30"/>
-      <c r="BU12" s="38"/>
+      <c r="BU12" s="34"/>
       <c r="BV12" s="29"/>
       <c r="BW12" s="29"/>
       <c r="BX12" s="29"/>
       <c r="BY12" s="29"/>
-      <c r="BZ12" s="38"/>
+      <c r="BZ12" s="29"/>
       <c r="CA12" s="30"/>
       <c r="CB12" s="31"/>
     </row>
-    <row r="13" spans="1:105" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5"/>
+    <row r="13" spans="1:105" ht="15" customHeight="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="31"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="29"/>
@@ -4218,29 +4338,34 @@
       <c r="BN13" s="31"/>
       <c r="BO13" s="29"/>
       <c r="BP13" s="29"/>
-      <c r="BQ13" s="38"/>
+      <c r="BQ13" s="29"/>
       <c r="BR13" s="29"/>
       <c r="BS13" s="29"/>
       <c r="BT13" s="30"/>
-      <c r="BU13" s="38"/>
+      <c r="BU13" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="BV13" s="29"/>
       <c r="BW13" s="29"/>
       <c r="BX13" s="29"/>
       <c r="BY13" s="29"/>
-      <c r="BZ13" s="38"/>
+      <c r="BZ13" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="CA13" s="30"/>
       <c r="CB13" s="31"/>
     </row>
-    <row r="14" spans="1:105" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+    <row r="14" spans="1:105" ht="15" customHeight="1">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
       <c r="J14" s="31"/>
@@ -4254,13 +4379,15 @@
       <c r="R14" s="29"/>
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
+      <c r="U14" s="41"/>
       <c r="V14" s="37"/>
       <c r="W14" s="30"/>
       <c r="X14" s="31"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="AB14" s="29"/>
       <c r="AC14" s="37"/>
       <c r="AD14" s="30"/>
@@ -4302,7 +4429,7 @@
       <c r="BN14" s="31"/>
       <c r="BO14" s="29"/>
       <c r="BP14" s="29"/>
-      <c r="BQ14" s="38"/>
+      <c r="BQ14" s="29"/>
       <c r="BR14" s="29"/>
       <c r="BS14" s="29"/>
       <c r="BT14" s="30"/>
@@ -4315,11 +4442,10 @@
       <c r="CA14" s="30"/>
       <c r="CB14" s="31"/>
     </row>
-    <row r="15" spans="1:105" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="40"/>
+    <row r="15" spans="1:105" ht="15" customHeight="1">
+      <c r="B15" s="39"/>
       <c r="C15" s="43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="29"/>
@@ -4386,7 +4512,7 @@
       <c r="BN15" s="31"/>
       <c r="BO15" s="29"/>
       <c r="BP15" s="29"/>
-      <c r="BQ15" s="38"/>
+      <c r="BQ15" s="29"/>
       <c r="BR15" s="29"/>
       <c r="BS15" s="29"/>
       <c r="BT15" s="30"/>
@@ -4399,11 +4525,10 @@
       <c r="CA15" s="30"/>
       <c r="CB15" s="31"/>
     </row>
-    <row r="16" spans="1:105" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="40"/>
+    <row r="16" spans="1:105" ht="15" customHeight="1">
+      <c r="B16" s="39"/>
       <c r="C16" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="29"/>
@@ -4421,9 +4546,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="44" t="s">
-        <v>26</v>
-      </c>
+      <c r="T16" s="29"/>
       <c r="U16" s="29"/>
       <c r="V16" s="37"/>
       <c r="W16" s="30"/>
@@ -4472,7 +4595,7 @@
       <c r="BN16" s="31"/>
       <c r="BO16" s="29"/>
       <c r="BP16" s="29"/>
-      <c r="BQ16" s="38"/>
+      <c r="BQ16" s="29"/>
       <c r="BR16" s="29"/>
       <c r="BS16" s="29"/>
       <c r="BT16" s="30"/>
@@ -4485,13 +4608,10 @@
       <c r="CA16" s="30"/>
       <c r="CB16" s="31"/>
     </row>
-    <row r="17" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="40"/>
+    <row r="17" spans="2:80" ht="15" customHeight="1">
+      <c r="B17" s="39"/>
       <c r="C17" s="43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="29"/>
@@ -4510,13 +4630,13 @@
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="45"/>
+      <c r="U17" s="29"/>
       <c r="V17" s="37"/>
       <c r="W17" s="30"/>
       <c r="X17" s="31"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="30"/>
@@ -4558,7 +4678,7 @@
       <c r="BN17" s="31"/>
       <c r="BO17" s="29"/>
       <c r="BP17" s="29"/>
-      <c r="BQ17" s="38"/>
+      <c r="BQ17" s="29"/>
       <c r="BR17" s="29"/>
       <c r="BS17" s="29"/>
       <c r="BT17" s="30"/>
@@ -4571,31 +4691,30 @@
       <c r="CA17" s="30"/>
       <c r="CB17" s="31"/>
     </row>
-    <row r="18" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A18" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+    <row r="18" spans="2:80" ht="15" customHeight="1">
+      <c r="B18" s="39"/>
+      <c r="C18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="31"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
+      <c r="T18" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="U18" s="29"/>
       <c r="V18" s="37"/>
       <c r="W18" s="30"/>
@@ -4644,7 +4763,7 @@
       <c r="BN18" s="31"/>
       <c r="BO18" s="29"/>
       <c r="BP18" s="29"/>
-      <c r="BQ18" s="38"/>
+      <c r="BQ18" s="29"/>
       <c r="BR18" s="29"/>
       <c r="BS18" s="29"/>
       <c r="BT18" s="30"/>
@@ -4657,11 +4776,10 @@
       <c r="CA18" s="30"/>
       <c r="CB18" s="31"/>
     </row>
-    <row r="19" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="40"/>
+    <row r="19" spans="2:80" ht="15" customHeight="1">
+      <c r="B19" s="39"/>
       <c r="C19" s="43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="29"/>
@@ -4670,11 +4788,9 @@
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
       <c r="J19" s="31"/>
-      <c r="K19"/>
+      <c r="K19" s="29"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="44" t="s">
-        <v>26</v>
-      </c>
+      <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
       <c r="P19" s="30"/>
@@ -4682,13 +4798,13 @@
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
       <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
+      <c r="U19" s="45"/>
       <c r="V19" s="37"/>
       <c r="W19" s="30"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
       <c r="AB19" s="29"/>
       <c r="AC19" s="37"/>
       <c r="AD19" s="30"/>
@@ -4730,7 +4846,7 @@
       <c r="BN19" s="31"/>
       <c r="BO19" s="29"/>
       <c r="BP19" s="29"/>
-      <c r="BQ19" s="38"/>
+      <c r="BQ19" s="29"/>
       <c r="BR19" s="29"/>
       <c r="BS19" s="29"/>
       <c r="BT19" s="30"/>
@@ -4743,31 +4859,28 @@
       <c r="CA19" s="30"/>
       <c r="CB19" s="31"/>
     </row>
-    <row r="20" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+    <row r="20" spans="2:80" ht="15" customHeight="1">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="30"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="31"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
       <c r="U20" s="29"/>
       <c r="V20" s="37"/>
       <c r="W20" s="30"/>
@@ -4816,7 +4929,7 @@
       <c r="BN20" s="31"/>
       <c r="BO20" s="29"/>
       <c r="BP20" s="29"/>
-      <c r="BQ20" s="38"/>
+      <c r="BQ20" s="29"/>
       <c r="BR20" s="29"/>
       <c r="BS20" s="29"/>
       <c r="BT20" s="30"/>
@@ -4829,31 +4942,30 @@
       <c r="CA20" s="30"/>
       <c r="CB20" s="31"/>
     </row>
-    <row r="21" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="40"/>
+    <row r="21" spans="2:80" ht="15" customHeight="1">
+      <c r="B21" s="39"/>
       <c r="C21" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
-      <c r="T21" s="44" t="s">
-        <v>26</v>
-      </c>
+      <c r="T21" s="29"/>
       <c r="U21" s="29"/>
       <c r="V21" s="37"/>
       <c r="W21" s="30"/>
@@ -4902,7 +5014,7 @@
       <c r="BN21" s="31"/>
       <c r="BO21" s="29"/>
       <c r="BP21" s="29"/>
-      <c r="BQ21" s="38"/>
+      <c r="BQ21" s="29"/>
       <c r="BR21" s="29"/>
       <c r="BS21" s="29"/>
       <c r="BT21" s="30"/>
@@ -4915,22 +5027,23 @@
       <c r="CA21" s="30"/>
       <c r="CB21" s="31"/>
     </row>
-    <row r="22" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="40"/>
+    <row r="22" spans="2:80" ht="15" customHeight="1">
+      <c r="B22" s="39"/>
       <c r="C22" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+        <v>28</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45" t="s">
+        <v>29</v>
+      </c>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="30"/>
@@ -4986,7 +5099,7 @@
       <c r="BN22" s="31"/>
       <c r="BO22" s="29"/>
       <c r="BP22" s="29"/>
-      <c r="BQ22" s="38"/>
+      <c r="BQ22" s="29"/>
       <c r="BR22" s="29"/>
       <c r="BS22" s="29"/>
       <c r="BT22" s="30"/>
@@ -4999,11 +5112,10 @@
       <c r="CA22" s="30"/>
       <c r="CB22" s="31"/>
     </row>
-    <row r="23" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="40"/>
+    <row r="23" spans="2:80" ht="15" customHeight="1">
+      <c r="B23" s="39"/>
       <c r="C23" s="43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="29"/>
@@ -5015,13 +5127,15 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="31"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="U23" s="29"/>
       <c r="V23" s="37"/>
       <c r="W23" s="30"/>
@@ -5070,7 +5184,7 @@
       <c r="BN23" s="31"/>
       <c r="BO23" s="29"/>
       <c r="BP23" s="29"/>
-      <c r="BQ23" s="38"/>
+      <c r="BQ23" s="29"/>
       <c r="BR23" s="29"/>
       <c r="BS23" s="29"/>
       <c r="BT23" s="30"/>
@@ -5083,11 +5197,10 @@
       <c r="CA23" s="30"/>
       <c r="CB23" s="31"/>
     </row>
-    <row r="24" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="43" t="s">
-        <v>36</v>
+    <row r="24" spans="2:80" ht="15" customHeight="1">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="29"/>
@@ -5098,15 +5211,15 @@
       <c r="J24" s="31"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="31"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
       <c r="V24" s="37"/>
       <c r="W24" s="30"/>
       <c r="X24" s="31"/>
@@ -5154,7 +5267,7 @@
       <c r="BN24" s="31"/>
       <c r="BO24" s="29"/>
       <c r="BP24" s="29"/>
-      <c r="BQ24" s="38"/>
+      <c r="BQ24" s="29"/>
       <c r="BR24" s="29"/>
       <c r="BS24" s="29"/>
       <c r="BT24" s="30"/>
@@ -5167,11 +5280,10 @@
       <c r="CA24" s="30"/>
       <c r="CB24" s="31"/>
     </row>
-    <row r="25" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="40"/>
+    <row r="25" spans="2:80" ht="15" customHeight="1">
+      <c r="B25" s="39"/>
       <c r="C25" s="43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="29"/>
@@ -5182,15 +5294,17 @@
       <c r="J25" s="31"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="31"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="37"/>
       <c r="W25" s="30"/>
       <c r="X25" s="31"/>
@@ -5238,7 +5352,7 @@
       <c r="BN25" s="31"/>
       <c r="BO25" s="29"/>
       <c r="BP25" s="29"/>
-      <c r="BQ25" s="38"/>
+      <c r="BQ25" s="29"/>
       <c r="BR25" s="29"/>
       <c r="BS25" s="29"/>
       <c r="BT25" s="30"/>
@@ -5251,24 +5365,21 @@
       <c r="CA25" s="30"/>
       <c r="CB25" s="31"/>
     </row>
-    <row r="26" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
+    <row r="26" spans="2:80" ht="15" customHeight="1">
+      <c r="B26" s="39"/>
+      <c r="C26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="30"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
       <c r="P26" s="30"/>
@@ -5324,7 +5435,7 @@
       <c r="BN26" s="31"/>
       <c r="BO26" s="29"/>
       <c r="BP26" s="29"/>
-      <c r="BQ26" s="38"/>
+      <c r="BQ26" s="29"/>
       <c r="BR26" s="29"/>
       <c r="BS26" s="29"/>
       <c r="BT26" s="30"/>
@@ -5337,11 +5448,10 @@
       <c r="CA26" s="30"/>
       <c r="CB26" s="31"/>
     </row>
-    <row r="27" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="40"/>
+    <row r="27" spans="2:80" ht="15" customHeight="1">
+      <c r="B27" s="39"/>
       <c r="C27" s="43" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="29"/>
@@ -5408,7 +5518,7 @@
       <c r="BN27" s="31"/>
       <c r="BO27" s="29"/>
       <c r="BP27" s="29"/>
-      <c r="BQ27" s="38"/>
+      <c r="BQ27" s="29"/>
       <c r="BR27" s="29"/>
       <c r="BS27" s="29"/>
       <c r="BT27" s="30"/>
@@ -5421,11 +5531,10 @@
       <c r="CA27" s="30"/>
       <c r="CB27" s="31"/>
     </row>
-    <row r="28" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="40"/>
+    <row r="28" spans="2:80" ht="15" customHeight="1">
+      <c r="B28" s="39"/>
       <c r="C28" s="43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="29"/>
@@ -5492,7 +5601,7 @@
       <c r="BN28" s="31"/>
       <c r="BO28" s="29"/>
       <c r="BP28" s="29"/>
-      <c r="BQ28" s="38"/>
+      <c r="BQ28" s="29"/>
       <c r="BR28" s="29"/>
       <c r="BS28" s="29"/>
       <c r="BT28" s="30"/>
@@ -5505,14 +5614,15 @@
       <c r="CA28" s="30"/>
       <c r="CB28" s="31"/>
     </row>
-    <row r="29" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="29"/>
+    <row r="29" spans="2:80" ht="15" customHeight="1">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -5576,7 +5686,7 @@
       <c r="BN29" s="31"/>
       <c r="BO29" s="29"/>
       <c r="BP29" s="29"/>
-      <c r="BQ29" s="38"/>
+      <c r="BQ29" s="29"/>
       <c r="BR29" s="29"/>
       <c r="BS29" s="29"/>
       <c r="BT29" s="30"/>
@@ -5589,11 +5699,10 @@
       <c r="CA29" s="30"/>
       <c r="CB29" s="31"/>
     </row>
-    <row r="30" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="43" t="s">
-        <v>37</v>
+    <row r="30" spans="2:80" ht="15" customHeight="1">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="29"/>
@@ -5660,7 +5769,7 @@
       <c r="BN30" s="31"/>
       <c r="BO30" s="29"/>
       <c r="BP30" s="29"/>
-      <c r="BQ30" s="38"/>
+      <c r="BQ30" s="29"/>
       <c r="BR30" s="29"/>
       <c r="BS30" s="29"/>
       <c r="BT30" s="30"/>
@@ -5673,28 +5782,23 @@
       <c r="CA30" s="30"/>
       <c r="CB30" s="31"/>
     </row>
-    <row r="31" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+    <row r="31" spans="2:80" ht="15" customHeight="1">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="31"/>
       <c r="R31" s="29"/>
@@ -5748,7 +5852,7 @@
       <c r="BN31" s="31"/>
       <c r="BO31" s="29"/>
       <c r="BP31" s="29"/>
-      <c r="BQ31" s="38"/>
+      <c r="BQ31" s="29"/>
       <c r="BR31" s="29"/>
       <c r="BS31" s="29"/>
       <c r="BT31" s="30"/>
@@ -5761,13 +5865,10 @@
       <c r="CA31" s="30"/>
       <c r="CB31" s="31"/>
     </row>
-    <row r="32" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41" t="s">
-        <v>43</v>
+    <row r="32" spans="2:80" ht="15" customHeight="1">
+      <c r="B32" s="39"/>
+      <c r="C32" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="29"/>
@@ -5834,7 +5935,7 @@
       <c r="BN32" s="31"/>
       <c r="BO32" s="29"/>
       <c r="BP32" s="29"/>
-      <c r="BQ32" s="38"/>
+      <c r="BQ32" s="29"/>
       <c r="BR32" s="29"/>
       <c r="BS32" s="29"/>
       <c r="BT32" s="30"/>
@@ -5847,24 +5948,21 @@
       <c r="CA32" s="30"/>
       <c r="CB32" s="31"/>
     </row>
-    <row r="33" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+    <row r="33" spans="2:80" ht="15" customHeight="1">
+      <c r="B33" s="39"/>
+      <c r="C33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="30"/>
       <c r="J33" s="31"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
       <c r="P33" s="30"/>
@@ -5920,7 +6018,7 @@
       <c r="BN33" s="31"/>
       <c r="BO33" s="29"/>
       <c r="BP33" s="29"/>
-      <c r="BQ33" s="38"/>
+      <c r="BQ33" s="29"/>
       <c r="BR33" s="29"/>
       <c r="BS33" s="29"/>
       <c r="BT33" s="30"/>
@@ -5933,11 +6031,10 @@
       <c r="CA33" s="30"/>
       <c r="CB33" s="31"/>
     </row>
-    <row r="34" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="40"/>
+    <row r="34" spans="2:80" ht="15" customHeight="1">
+      <c r="B34" s="39"/>
       <c r="C34" s="43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="29"/>
@@ -6004,7 +6101,7 @@
       <c r="BN34" s="31"/>
       <c r="BO34" s="29"/>
       <c r="BP34" s="29"/>
-      <c r="BQ34" s="38"/>
+      <c r="BQ34" s="29"/>
       <c r="BR34" s="29"/>
       <c r="BS34" s="29"/>
       <c r="BT34" s="30"/>
@@ -6017,11 +6114,10 @@
       <c r="CA34" s="30"/>
       <c r="CB34" s="31"/>
     </row>
-    <row r="35" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="40"/>
+    <row r="35" spans="2:80" ht="15" customHeight="1">
+      <c r="B35" s="39"/>
       <c r="C35" s="43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="29"/>
@@ -6088,7 +6184,7 @@
       <c r="BN35" s="31"/>
       <c r="BO35" s="29"/>
       <c r="BP35" s="29"/>
-      <c r="BQ35" s="38"/>
+      <c r="BQ35" s="29"/>
       <c r="BR35" s="29"/>
       <c r="BS35" s="29"/>
       <c r="BT35" s="30"/>
@@ -6101,11 +6197,10 @@
       <c r="CA35" s="30"/>
       <c r="CB35" s="31"/>
     </row>
-    <row r="36" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="40"/>
+    <row r="36" spans="2:80" ht="15" customHeight="1">
+      <c r="B36" s="39"/>
       <c r="C36" s="43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="29"/>
@@ -6172,7 +6267,7 @@
       <c r="BN36" s="31"/>
       <c r="BO36" s="29"/>
       <c r="BP36" s="29"/>
-      <c r="BQ36" s="38"/>
+      <c r="BQ36" s="29"/>
       <c r="BR36" s="29"/>
       <c r="BS36" s="29"/>
       <c r="BT36" s="30"/>
@@ -6185,22 +6280,23 @@
       <c r="CA36" s="30"/>
       <c r="CB36" s="31"/>
     </row>
-    <row r="37" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+    <row r="37" spans="2:80" ht="15" customHeight="1">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="30"/>
       <c r="J37" s="31"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
       <c r="P37" s="30"/>
@@ -6256,7 +6352,7 @@
       <c r="BN37" s="31"/>
       <c r="BO37" s="29"/>
       <c r="BP37" s="29"/>
-      <c r="BQ37" s="38"/>
+      <c r="BQ37" s="29"/>
       <c r="BR37" s="29"/>
       <c r="BS37" s="29"/>
       <c r="BT37" s="30"/>
@@ -6269,12 +6365,9 @@
       <c r="CA37" s="30"/>
       <c r="CB37" s="31"/>
     </row>
-    <row r="38" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="43" t="s">
-        <v>49</v>
-      </c>
+    <row r="38" spans="2:80" ht="12" customHeight="1">
+      <c r="B38" s="39"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="5"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
@@ -6340,7 +6433,7 @@
       <c r="BN38" s="31"/>
       <c r="BO38" s="29"/>
       <c r="BP38" s="29"/>
-      <c r="BQ38" s="38"/>
+      <c r="BQ38" s="29"/>
       <c r="BR38" s="29"/>
       <c r="BS38" s="29"/>
       <c r="BT38" s="30"/>
@@ -6353,49 +6446,43 @@
       <c r="CA38" s="30"/>
       <c r="CB38" s="31"/>
     </row>
-    <row r="39" spans="1:80" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41" t="s">
-        <v>51</v>
+    <row r="39" spans="2:80" ht="15" customHeight="1">
+      <c r="B39" s="39"/>
+      <c r="C39" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
       <c r="I39" s="30"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="37"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="49"/>
       <c r="W39" s="30"/>
       <c r="X39" s="31"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="37"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="49"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="31"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="47"/>
       <c r="AK39" s="30"/>
       <c r="AL39" s="31"/>
       <c r="AM39" s="29"/>
@@ -6428,7 +6515,7 @@
       <c r="BN39" s="31"/>
       <c r="BO39" s="29"/>
       <c r="BP39" s="29"/>
-      <c r="BQ39" s="38"/>
+      <c r="BQ39" s="29"/>
       <c r="BR39" s="29"/>
       <c r="BS39" s="29"/>
       <c r="BT39" s="30"/>
@@ -6441,10 +6528,11 @@
       <c r="CA39" s="30"/>
       <c r="CB39" s="31"/>
     </row>
-    <row r="40" spans="1:80" ht="12" customHeight="1" collapsed="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="43"/>
+    <row r="40" spans="2:80" ht="15" customHeight="1">
+      <c r="B40" s="39"/>
+      <c r="C40" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -6462,11 +6550,9 @@
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
       <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
       <c r="V40" s="37"/>
       <c r="W40" s="30"/>
       <c r="X40" s="31"/>
-      <c r="Y40" s="29"/>
       <c r="Z40" s="29"/>
       <c r="AA40" s="29"/>
       <c r="AB40" s="29"/>
@@ -6510,7 +6596,7 @@
       <c r="BN40" s="31"/>
       <c r="BO40" s="29"/>
       <c r="BP40" s="29"/>
-      <c r="BQ40" s="38"/>
+      <c r="BQ40" s="29"/>
       <c r="BR40" s="29"/>
       <c r="BS40" s="29"/>
       <c r="BT40" s="30"/>
@@ -6523,44 +6609,44 @@
       <c r="CA40" s="30"/>
       <c r="CB40" s="31"/>
     </row>
-    <row r="41" spans="1:80" ht="15" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="47" t="s">
-        <v>52</v>
+    <row r="41" spans="2:80" ht="15" customHeight="1">
+      <c r="B41" s="39"/>
+      <c r="C41" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="30"/>
       <c r="J41" s="31"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
       <c r="P41" s="30"/>
       <c r="Q41" s="31"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="50"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="37"/>
       <c r="W41" s="30"/>
       <c r="X41" s="31"/>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="50"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="37"/>
       <c r="AD41" s="30"/>
       <c r="AE41" s="31"/>
-      <c r="AF41" s="49"/>
-      <c r="AG41" s="48"/>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="49"/>
-      <c r="AJ41" s="48"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
       <c r="AK41" s="30"/>
       <c r="AL41" s="31"/>
       <c r="AM41" s="29"/>
@@ -6593,7 +6679,7 @@
       <c r="BN41" s="31"/>
       <c r="BO41" s="29"/>
       <c r="BP41" s="29"/>
-      <c r="BQ41" s="38"/>
+      <c r="BQ41" s="29"/>
       <c r="BR41" s="29"/>
       <c r="BS41" s="29"/>
       <c r="BT41" s="30"/>
@@ -6606,13 +6692,10 @@
       <c r="CA41" s="30"/>
       <c r="CB41" s="31"/>
     </row>
-    <row r="42" spans="1:80" ht="15" customHeight="1">
-      <c r="A42" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="51" t="s">
-        <v>30</v>
+    <row r="42" spans="2:80" ht="15" customHeight="1">
+      <c r="B42" s="39"/>
+      <c r="C42" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="29"/>
@@ -6631,9 +6714,11 @@
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
       <c r="T42" s="29"/>
+      <c r="U42" s="51"/>
       <c r="V42" s="37"/>
       <c r="W42" s="30"/>
       <c r="X42" s="31"/>
+      <c r="Y42" s="51"/>
       <c r="Z42" s="29"/>
       <c r="AA42" s="29"/>
       <c r="AB42" s="29"/>
@@ -6677,7 +6762,7 @@
       <c r="BN42" s="31"/>
       <c r="BO42" s="29"/>
       <c r="BP42" s="29"/>
-      <c r="BQ42" s="38"/>
+      <c r="BQ42" s="29"/>
       <c r="BR42" s="29"/>
       <c r="BS42" s="29"/>
       <c r="BT42" s="30"/>
@@ -6690,11 +6775,10 @@
       <c r="CA42" s="30"/>
       <c r="CB42" s="31"/>
     </row>
-    <row r="43" spans="1:80" ht="15" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="40"/>
+    <row r="43" spans="2:80" ht="15" customHeight="1">
+      <c r="B43" s="39"/>
       <c r="C43" s="43" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="29"/>
@@ -6712,14 +6796,16 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="52"/>
+      <c r="T43" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" s="29"/>
       <c r="V43" s="37"/>
       <c r="W43" s="30"/>
       <c r="X43" s="31"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
       <c r="AB43" s="29"/>
       <c r="AC43" s="37"/>
       <c r="AD43" s="30"/>
@@ -6761,7 +6847,7 @@
       <c r="BN43" s="31"/>
       <c r="BO43" s="29"/>
       <c r="BP43" s="29"/>
-      <c r="BQ43" s="38"/>
+      <c r="BQ43" s="29"/>
       <c r="BR43" s="29"/>
       <c r="BS43" s="29"/>
       <c r="BT43" s="30"/>
@@ -6774,12 +6860,8 @@
       <c r="CA43" s="30"/>
       <c r="CB43" s="31"/>
     </row>
-    <row r="44" spans="1:80" ht="15" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="43" t="s">
-        <v>55</v>
-      </c>
+    <row r="44" spans="2:80" ht="15" customHeight="1">
+      <c r="B44" s="39"/>
       <c r="D44" s="5"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
@@ -6797,11 +6879,11 @@
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
-      <c r="U44" s="52"/>
+      <c r="U44" s="29"/>
       <c r="V44" s="37"/>
       <c r="W44" s="30"/>
       <c r="X44" s="31"/>
-      <c r="Y44" s="52"/>
+      <c r="Y44" s="29"/>
       <c r="Z44" s="29"/>
       <c r="AA44" s="29"/>
       <c r="AB44" s="29"/>
@@ -6845,7 +6927,7 @@
       <c r="BN44" s="31"/>
       <c r="BO44" s="29"/>
       <c r="BP44" s="29"/>
-      <c r="BQ44" s="38"/>
+      <c r="BQ44" s="29"/>
       <c r="BR44" s="29"/>
       <c r="BS44" s="29"/>
       <c r="BT44" s="30"/>
@@ -6858,11 +6940,10 @@
       <c r="CA44" s="30"/>
       <c r="CB44" s="31"/>
     </row>
-    <row r="45" spans="1:80" ht="15" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="43" t="s">
-        <v>56</v>
+    <row r="45" spans="2:80" ht="15" customHeight="1">
+      <c r="B45" s="39"/>
+      <c r="C45" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="29"/>
@@ -6880,16 +6961,14 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
-      <c r="T45" s="52" t="s">
-        <v>32</v>
-      </c>
+      <c r="T45" s="29"/>
       <c r="U45" s="29"/>
       <c r="V45" s="37"/>
       <c r="W45" s="30"/>
       <c r="X45" s="31"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
       <c r="AB45" s="29"/>
       <c r="AC45" s="37"/>
       <c r="AD45" s="30"/>
@@ -6931,7 +7010,7 @@
       <c r="BN45" s="31"/>
       <c r="BO45" s="29"/>
       <c r="BP45" s="29"/>
-      <c r="BQ45" s="38"/>
+      <c r="BQ45" s="29"/>
       <c r="BR45" s="29"/>
       <c r="BS45" s="29"/>
       <c r="BT45" s="30"/>
@@ -6944,9 +7023,11 @@
       <c r="CA45" s="30"/>
       <c r="CB45" s="31"/>
     </row>
-    <row r="46" spans="1:80" ht="15" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="40"/>
+    <row r="46" spans="2:80" ht="15" customHeight="1">
+      <c r="B46" s="39"/>
+      <c r="C46" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -6964,7 +7045,9 @@
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
+      <c r="U46" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="V46" s="37"/>
       <c r="W46" s="30"/>
       <c r="X46" s="31"/>
@@ -7012,7 +7095,7 @@
       <c r="BN46" s="31"/>
       <c r="BO46" s="29"/>
       <c r="BP46" s="29"/>
-      <c r="BQ46" s="38"/>
+      <c r="BQ46" s="29"/>
       <c r="BR46" s="29"/>
       <c r="BS46" s="29"/>
       <c r="BT46" s="30"/>
@@ -7025,11 +7108,10 @@
       <c r="CA46" s="30"/>
       <c r="CB46" s="31"/>
     </row>
-    <row r="47" spans="1:80" ht="15" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="51" t="s">
-        <v>31</v>
+    <row r="47" spans="2:80">
+      <c r="B47" s="39"/>
+      <c r="C47" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="29"/>
@@ -7080,9 +7162,10 @@
       <c r="AX47" s="29"/>
       <c r="AY47" s="30"/>
       <c r="AZ47" s="31"/>
-      <c r="BA47" s="29"/>
-      <c r="BB47" s="29"/>
-      <c r="BC47" s="29"/>
+      <c r="BA47" s="51"/>
+      <c r="BB47" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="BD47" s="29"/>
       <c r="BE47" s="29"/>
       <c r="BF47" s="30"/>
@@ -7096,7 +7179,7 @@
       <c r="BN47" s="31"/>
       <c r="BO47" s="29"/>
       <c r="BP47" s="29"/>
-      <c r="BQ47" s="38"/>
+      <c r="BQ47" s="29"/>
       <c r="BR47" s="29"/>
       <c r="BS47" s="29"/>
       <c r="BT47" s="30"/>
@@ -7109,14 +7192,9 @@
       <c r="CA47" s="30"/>
       <c r="CB47" s="31"/>
     </row>
-    <row r="48" spans="1:80" ht="15" customHeight="1">
-      <c r="A48" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="43" t="s">
-        <v>57</v>
-      </c>
+    <row r="48" spans="2:80" ht="15" customHeight="1">
+      <c r="B48" s="39"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="5"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
@@ -7134,9 +7212,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
-      <c r="U48" s="52" t="s">
-        <v>26</v>
-      </c>
+      <c r="U48" s="29"/>
       <c r="V48" s="37"/>
       <c r="W48" s="30"/>
       <c r="X48" s="31"/>
@@ -7184,7 +7260,7 @@
       <c r="BN48" s="31"/>
       <c r="BO48" s="29"/>
       <c r="BP48" s="29"/>
-      <c r="BQ48" s="38"/>
+      <c r="BQ48" s="29"/>
       <c r="BR48" s="29"/>
       <c r="BS48" s="29"/>
       <c r="BT48" s="30"/>
@@ -7197,13 +7273,10 @@
       <c r="CA48" s="30"/>
       <c r="CB48" s="31"/>
     </row>
-    <row r="49" spans="1:80">
-      <c r="A49" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="43" t="s">
-        <v>59</v>
+    <row r="49" spans="2:80" ht="15" customHeight="1">
+      <c r="B49" s="39"/>
+      <c r="C49" s="50" t="s">
+        <v>50</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="29"/>
@@ -7233,14 +7306,16 @@
       <c r="AC49" s="37"/>
       <c r="AD49" s="30"/>
       <c r="AE49" s="31"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
+      <c r="AF49" s="48"/>
+      <c r="AG49" s="47"/>
       <c r="AH49" s="37"/>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
+      <c r="AI49" s="48"/>
+      <c r="AJ49" s="47"/>
       <c r="AK49" s="30"/>
       <c r="AL49" s="31"/>
-      <c r="AM49" s="29"/>
+      <c r="AM49" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="AN49" s="29"/>
       <c r="AO49" s="29"/>
       <c r="AP49" s="29"/>
@@ -7254,10 +7329,9 @@
       <c r="AX49" s="29"/>
       <c r="AY49" s="30"/>
       <c r="AZ49" s="31"/>
-      <c r="BA49" s="52"/>
-      <c r="BB49" s="52" t="s">
-        <v>26</v>
-      </c>
+      <c r="BA49" s="29"/>
+      <c r="BB49" s="29"/>
+      <c r="BC49" s="29"/>
       <c r="BD49" s="29"/>
       <c r="BE49" s="29"/>
       <c r="BF49" s="30"/>
@@ -7271,7 +7345,7 @@
       <c r="BN49" s="31"/>
       <c r="BO49" s="29"/>
       <c r="BP49" s="29"/>
-      <c r="BQ49" s="38"/>
+      <c r="BQ49" s="29"/>
       <c r="BR49" s="29"/>
       <c r="BS49" s="29"/>
       <c r="BT49" s="30"/>
@@ -7284,10 +7358,11 @@
       <c r="CA49" s="30"/>
       <c r="CB49" s="31"/>
     </row>
-    <row r="50" spans="1:80" ht="15" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="43"/>
+    <row r="50" spans="2:80">
+      <c r="B50" s="39"/>
+      <c r="C50" s="43" t="s">
+        <v>51</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
@@ -7316,14 +7391,14 @@
       <c r="AC50" s="37"/>
       <c r="AD50" s="30"/>
       <c r="AE50" s="31"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
       <c r="AH50" s="37"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="51"/>
       <c r="AK50" s="30"/>
       <c r="AL50" s="31"/>
-      <c r="AM50" s="29"/>
+      <c r="AM50" s="51"/>
       <c r="AN50" s="29"/>
       <c r="AO50" s="29"/>
       <c r="AP50" s="29"/>
@@ -7353,7 +7428,7 @@
       <c r="BN50" s="31"/>
       <c r="BO50" s="29"/>
       <c r="BP50" s="29"/>
-      <c r="BQ50" s="38"/>
+      <c r="BQ50" s="29"/>
       <c r="BR50" s="29"/>
       <c r="BS50" s="29"/>
       <c r="BT50" s="30"/>
@@ -7366,14 +7441,9 @@
       <c r="CA50" s="30"/>
       <c r="CB50" s="31"/>
     </row>
-    <row r="51" spans="1:80" ht="15" customHeight="1">
-      <c r="A51" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="51" t="s">
-        <v>60</v>
-      </c>
+    <row r="51" spans="2:80">
+      <c r="B51" s="39"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="5"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
@@ -7402,16 +7472,14 @@
       <c r="AC51" s="37"/>
       <c r="AD51" s="30"/>
       <c r="AE51" s="31"/>
-      <c r="AF51" s="49"/>
-      <c r="AG51" s="48"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
       <c r="AH51" s="37"/>
-      <c r="AI51" s="49"/>
-      <c r="AJ51" s="48"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
       <c r="AK51" s="30"/>
       <c r="AL51" s="31"/>
-      <c r="AM51" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="AM51" s="29"/>
       <c r="AN51" s="29"/>
       <c r="AO51" s="29"/>
       <c r="AP51" s="29"/>
@@ -7428,6 +7496,8 @@
       <c r="BA51" s="29"/>
       <c r="BB51" s="29"/>
       <c r="BC51" s="29"/>
+      <c r="BD51" s="29"/>
+      <c r="BE51" s="29"/>
       <c r="BF51" s="30"/>
       <c r="BG51" s="31"/>
       <c r="BH51" s="29"/>
@@ -7439,7 +7509,7 @@
       <c r="BN51" s="31"/>
       <c r="BO51" s="29"/>
       <c r="BP51" s="29"/>
-      <c r="BQ51" s="38"/>
+      <c r="BQ51" s="29"/>
       <c r="BR51" s="29"/>
       <c r="BS51" s="29"/>
       <c r="BT51" s="30"/>
@@ -7452,11 +7522,10 @@
       <c r="CA51" s="30"/>
       <c r="CB51" s="31"/>
     </row>
-    <row r="52" spans="1:80">
-      <c r="A52" s="42"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="43" t="s">
-        <v>61</v>
+    <row r="52" spans="2:80" ht="15" customHeight="1">
+      <c r="B52" s="39"/>
+      <c r="C52" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="29"/>
@@ -7486,25 +7555,25 @@
       <c r="AC52" s="37"/>
       <c r="AD52" s="30"/>
       <c r="AE52" s="31"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
       <c r="AH52" s="37"/>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
       <c r="AK52" s="30"/>
       <c r="AL52" s="31"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="29"/>
-      <c r="AO52" s="29"/>
-      <c r="AP52" s="29"/>
-      <c r="AQ52" s="29"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
+      <c r="AQ52" s="47"/>
       <c r="AR52" s="30"/>
       <c r="AS52" s="31"/>
-      <c r="AT52" s="29"/>
-      <c r="AU52" s="29"/>
-      <c r="AV52" s="29"/>
-      <c r="AW52" s="29"/>
-      <c r="AX52" s="29"/>
+      <c r="AT52" s="47"/>
+      <c r="AU52" s="47"/>
+      <c r="AV52" s="47"/>
+      <c r="AW52" s="47"/>
+      <c r="AX52" s="47"/>
       <c r="AY52" s="30"/>
       <c r="AZ52" s="31"/>
       <c r="BA52" s="29"/>
@@ -7523,7 +7592,7 @@
       <c r="BN52" s="31"/>
       <c r="BO52" s="29"/>
       <c r="BP52" s="29"/>
-      <c r="BQ52" s="38"/>
+      <c r="BQ52" s="29"/>
       <c r="BR52" s="29"/>
       <c r="BS52" s="29"/>
       <c r="BT52" s="30"/>
@@ -7536,10 +7605,11 @@
       <c r="CA52" s="30"/>
       <c r="CB52" s="31"/>
     </row>
-    <row r="53" spans="1:80">
-      <c r="A53" s="42"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="43"/>
+    <row r="53" spans="2:80" ht="15" customHeight="1">
+      <c r="B53" s="39"/>
+      <c r="C53" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
@@ -7556,7 +7626,9 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
+      <c r="T53" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="U53" s="29"/>
       <c r="V53" s="37"/>
       <c r="W53" s="30"/>
@@ -7575,11 +7647,13 @@
       <c r="AJ53" s="29"/>
       <c r="AK53" s="30"/>
       <c r="AL53" s="31"/>
-      <c r="AM53" s="29"/>
-      <c r="AN53" s="29"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="29"/>
-      <c r="AQ53" s="29"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
+      <c r="AO53" s="51"/>
+      <c r="AP53" s="51"/>
+      <c r="AQ53" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="AR53" s="30"/>
       <c r="AS53" s="31"/>
       <c r="AT53" s="29"/>
@@ -7605,7 +7679,7 @@
       <c r="BN53" s="31"/>
       <c r="BO53" s="29"/>
       <c r="BP53" s="29"/>
-      <c r="BQ53" s="38"/>
+      <c r="BQ53" s="29"/>
       <c r="BR53" s="29"/>
       <c r="BS53" s="29"/>
       <c r="BT53" s="30"/>
@@ -7618,11 +7692,10 @@
       <c r="CA53" s="30"/>
       <c r="CB53" s="31"/>
     </row>
-    <row r="54" spans="1:80" ht="15" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="51" t="s">
-        <v>33</v>
+    <row r="54" spans="2:80" ht="15" customHeight="1">
+      <c r="B54" s="39"/>
+      <c r="C54" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="29"/>
@@ -7659,18 +7732,20 @@
       <c r="AJ54" s="29"/>
       <c r="AK54" s="30"/>
       <c r="AL54" s="31"/>
-      <c r="AM54" s="48"/>
-      <c r="AN54" s="48"/>
-      <c r="AO54" s="48"/>
-      <c r="AP54" s="48"/>
-      <c r="AQ54" s="48"/>
+      <c r="AM54" s="29"/>
+      <c r="AN54" s="29"/>
+      <c r="AO54" s="29"/>
+      <c r="AP54" s="29"/>
+      <c r="AQ54" s="29"/>
       <c r="AR54" s="30"/>
       <c r="AS54" s="31"/>
-      <c r="AT54" s="48"/>
-      <c r="AU54" s="48"/>
-      <c r="AV54" s="48"/>
-      <c r="AW54" s="48"/>
-      <c r="AX54" s="48"/>
+      <c r="AT54" s="51"/>
+      <c r="AU54" s="51"/>
+      <c r="AV54" s="51"/>
+      <c r="AW54" s="51"/>
+      <c r="AX54" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="AY54" s="30"/>
       <c r="AZ54" s="31"/>
       <c r="BA54" s="29"/>
@@ -7689,7 +7764,7 @@
       <c r="BN54" s="31"/>
       <c r="BO54" s="29"/>
       <c r="BP54" s="29"/>
-      <c r="BQ54" s="38"/>
+      <c r="BQ54" s="29"/>
       <c r="BR54" s="29"/>
       <c r="BS54" s="29"/>
       <c r="BT54" s="30"/>
@@ -7702,14 +7777,8 @@
       <c r="CA54" s="30"/>
       <c r="CB54" s="31"/>
     </row>
-    <row r="55" spans="1:80" ht="15" customHeight="1">
-      <c r="A55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="43" t="s">
-        <v>62</v>
-      </c>
+    <row r="55" spans="2:80" ht="15" customHeight="1">
+      <c r="B55" s="39"/>
       <c r="D55" s="5"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
@@ -7726,9 +7795,7 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
-      <c r="T55" s="52" t="s">
-        <v>26</v>
-      </c>
+      <c r="T55" s="29"/>
       <c r="U55" s="29"/>
       <c r="V55" s="37"/>
       <c r="W55" s="30"/>
@@ -7747,13 +7814,11 @@
       <c r="AJ55" s="29"/>
       <c r="AK55" s="30"/>
       <c r="AL55" s="31"/>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="52"/>
-      <c r="AO55" s="52"/>
-      <c r="AP55" s="52"/>
-      <c r="AQ55" s="52" t="s">
-        <v>26</v>
-      </c>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
       <c r="AR55" s="30"/>
       <c r="AS55" s="31"/>
       <c r="AT55" s="29"/>
@@ -7779,7 +7844,7 @@
       <c r="BN55" s="31"/>
       <c r="BO55" s="29"/>
       <c r="BP55" s="29"/>
-      <c r="BQ55" s="38"/>
+      <c r="BQ55" s="29"/>
       <c r="BR55" s="29"/>
       <c r="BS55" s="29"/>
       <c r="BT55" s="30"/>
@@ -7792,13 +7857,10 @@
       <c r="CA55" s="30"/>
       <c r="CB55" s="31"/>
     </row>
-    <row r="56" spans="1:80" ht="15" customHeight="1">
-      <c r="A56" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="43" t="s">
-        <v>63</v>
+    <row r="56" spans="2:80" ht="15" customHeight="1">
+      <c r="B56" s="39"/>
+      <c r="C56" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="29"/>
@@ -7817,22 +7879,22 @@
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
+      <c r="U56" s="53"/>
       <c r="V56" s="37"/>
       <c r="W56" s="30"/>
       <c r="X56" s="31"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
       <c r="AC56" s="37"/>
       <c r="AD56" s="30"/>
       <c r="AE56" s="31"/>
-      <c r="AF56" s="29"/>
-      <c r="AG56" s="29"/>
+      <c r="AF56" s="53"/>
+      <c r="AG56" s="53"/>
       <c r="AH56" s="37"/>
-      <c r="AI56" s="29"/>
-      <c r="AJ56" s="29"/>
+      <c r="AI56" s="53"/>
+      <c r="AJ56" s="53"/>
       <c r="AK56" s="30"/>
       <c r="AL56" s="31"/>
       <c r="AM56" s="29"/>
@@ -7842,20 +7904,18 @@
       <c r="AQ56" s="29"/>
       <c r="AR56" s="30"/>
       <c r="AS56" s="31"/>
-      <c r="AT56" s="52"/>
-      <c r="AU56" s="52"/>
-      <c r="AV56" s="52"/>
-      <c r="AW56" s="52"/>
-      <c r="AX56" s="52" t="s">
-        <v>26</v>
-      </c>
+      <c r="AT56" s="29"/>
+      <c r="AU56" s="29"/>
+      <c r="AV56" s="29"/>
+      <c r="AW56" s="29"/>
+      <c r="AX56" s="29"/>
       <c r="AY56" s="30"/>
       <c r="AZ56" s="31"/>
       <c r="BA56" s="29"/>
       <c r="BB56" s="29"/>
-      <c r="BC56" s="53"/>
-      <c r="BD56" s="53"/>
-      <c r="BE56" s="53"/>
+      <c r="BC56" s="29"/>
+      <c r="BD56" s="29"/>
+      <c r="BE56" s="29"/>
       <c r="BF56" s="30"/>
       <c r="BG56" s="31"/>
       <c r="BH56" s="29"/>
@@ -7867,7 +7927,7 @@
       <c r="BN56" s="31"/>
       <c r="BO56" s="29"/>
       <c r="BP56" s="29"/>
-      <c r="BQ56" s="38"/>
+      <c r="BQ56" s="29"/>
       <c r="BR56" s="29"/>
       <c r="BS56" s="29"/>
       <c r="BT56" s="30"/>
@@ -7880,9 +7940,11 @@
       <c r="CA56" s="30"/>
       <c r="CB56" s="31"/>
     </row>
-    <row r="57" spans="1:80" ht="15" customHeight="1">
-      <c r="A57" s="42"/>
-      <c r="B57" s="40"/>
+    <row r="57" spans="2:80" ht="15" customHeight="1">
+      <c r="B57" s="39"/>
+      <c r="C57" s="54" t="s">
+        <v>55</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -7948,7 +8010,7 @@
       <c r="BN57" s="31"/>
       <c r="BO57" s="29"/>
       <c r="BP57" s="29"/>
-      <c r="BQ57" s="38"/>
+      <c r="BQ57" s="29"/>
       <c r="BR57" s="29"/>
       <c r="BS57" s="29"/>
       <c r="BT57" s="30"/>
@@ -7961,11 +8023,10 @@
       <c r="CA57" s="30"/>
       <c r="CB57" s="31"/>
     </row>
-    <row r="58" spans="1:80" ht="15" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="40"/>
+    <row r="58" spans="2:80">
+      <c r="B58" s="39"/>
       <c r="C58" s="54" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="29"/>
@@ -7984,55 +8045,57 @@
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
-      <c r="U58" s="55"/>
+      <c r="U58" s="53"/>
       <c r="V58" s="37"/>
       <c r="W58" s="30"/>
       <c r="X58" s="31"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="55"/>
-      <c r="AB58" s="55"/>
+      <c r="Y58" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
       <c r="AC58" s="37"/>
       <c r="AD58" s="30"/>
       <c r="AE58" s="31"/>
-      <c r="AF58" s="55"/>
-      <c r="AG58" s="55"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
       <c r="AH58" s="37"/>
-      <c r="AI58" s="55"/>
-      <c r="AJ58" s="55"/>
+      <c r="AI58" s="29"/>
+      <c r="AJ58" s="29"/>
       <c r="AK58" s="30"/>
       <c r="AL58" s="31"/>
-      <c r="AM58" s="55"/>
-      <c r="AN58" s="55"/>
-      <c r="AO58" s="55"/>
-      <c r="AP58" s="55"/>
-      <c r="AQ58" s="55"/>
+      <c r="AM58" s="29"/>
+      <c r="AN58" s="29"/>
+      <c r="AO58" s="29"/>
+      <c r="AP58" s="29"/>
+      <c r="AQ58" s="29"/>
       <c r="AR58" s="30"/>
       <c r="AS58" s="31"/>
-      <c r="AT58" s="55"/>
-      <c r="AU58" s="55"/>
-      <c r="AV58" s="55"/>
-      <c r="AW58" s="55"/>
-      <c r="AX58" s="55"/>
+      <c r="AT58" s="29"/>
+      <c r="AU58" s="29"/>
+      <c r="AV58" s="29"/>
+      <c r="AW58" s="29"/>
+      <c r="AX58" s="29"/>
       <c r="AY58" s="30"/>
       <c r="AZ58" s="31"/>
-      <c r="BA58" s="55"/>
-      <c r="BB58" s="55"/>
-      <c r="BC58" s="55"/>
-      <c r="BD58" s="55"/>
-      <c r="BE58" s="55"/>
+      <c r="BA58" s="29"/>
+      <c r="BB58" s="29"/>
+      <c r="BC58" s="29"/>
+      <c r="BD58" s="29"/>
+      <c r="BE58" s="29"/>
       <c r="BF58" s="30"/>
       <c r="BG58" s="31"/>
-      <c r="BH58" s="55"/>
-      <c r="BI58" s="55"/>
-      <c r="BJ58" s="55"/>
+      <c r="BH58" s="29"/>
+      <c r="BI58" s="29"/>
+      <c r="BJ58" s="29"/>
       <c r="BK58" s="29"/>
       <c r="BL58" s="29"/>
       <c r="BM58" s="30"/>
       <c r="BN58" s="31"/>
       <c r="BO58" s="29"/>
       <c r="BP58" s="29"/>
-      <c r="BQ58" s="38"/>
+      <c r="BQ58" s="29"/>
       <c r="BR58" s="29"/>
       <c r="BS58" s="29"/>
       <c r="BT58" s="30"/>
@@ -8045,11 +8108,10 @@
       <c r="CA58" s="30"/>
       <c r="CB58" s="31"/>
     </row>
-    <row r="59" spans="1:80" ht="15" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="56" t="s">
-        <v>65</v>
+    <row r="59" spans="2:80">
+      <c r="B59" s="39"/>
+      <c r="C59" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="29"/>
@@ -8086,11 +8148,13 @@
       <c r="AJ59" s="29"/>
       <c r="AK59" s="30"/>
       <c r="AL59" s="31"/>
-      <c r="AM59" s="29"/>
-      <c r="AN59" s="29"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="29"/>
-      <c r="AQ59" s="29"/>
+      <c r="AM59" s="53"/>
+      <c r="AN59" s="53"/>
+      <c r="AO59" s="53"/>
+      <c r="AP59" s="53"/>
+      <c r="AQ59" s="53" t="s">
+        <v>20</v>
+      </c>
       <c r="AR59" s="30"/>
       <c r="AS59" s="31"/>
       <c r="AT59" s="29"/>
@@ -8116,7 +8180,7 @@
       <c r="BN59" s="31"/>
       <c r="BO59" s="29"/>
       <c r="BP59" s="29"/>
-      <c r="BQ59" s="38"/>
+      <c r="BQ59" s="29"/>
       <c r="BR59" s="29"/>
       <c r="BS59" s="29"/>
       <c r="BT59" s="30"/>
@@ -8129,13 +8193,10 @@
       <c r="CA59" s="30"/>
       <c r="CB59" s="31"/>
     </row>
-    <row r="60" spans="1:80">
-      <c r="A60" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="56" t="s">
-        <v>67</v>
+    <row r="60" spans="2:80">
+      <c r="B60" s="39"/>
+      <c r="C60" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="29"/>
@@ -8154,13 +8215,11 @@
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
       <c r="T60" s="29"/>
-      <c r="U60" s="55"/>
+      <c r="U60" s="29"/>
       <c r="V60" s="37"/>
       <c r="W60" s="30"/>
       <c r="X60" s="31"/>
-      <c r="Y60" s="55" t="s">
-        <v>26</v>
-      </c>
+      <c r="Y60" s="29"/>
       <c r="Z60" s="29"/>
       <c r="AA60" s="29"/>
       <c r="AB60" s="29"/>
@@ -8174,11 +8233,11 @@
       <c r="AJ60" s="29"/>
       <c r="AK60" s="30"/>
       <c r="AL60" s="31"/>
-      <c r="AM60" s="29"/>
-      <c r="AN60" s="29"/>
-      <c r="AO60" s="29"/>
-      <c r="AP60" s="29"/>
-      <c r="AQ60" s="29"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="55"/>
+      <c r="AQ60" s="55"/>
       <c r="AR60" s="30"/>
       <c r="AS60" s="31"/>
       <c r="AT60" s="29"/>
@@ -8204,7 +8263,7 @@
       <c r="BN60" s="31"/>
       <c r="BO60" s="29"/>
       <c r="BP60" s="29"/>
-      <c r="BQ60" s="38"/>
+      <c r="BQ60" s="29"/>
       <c r="BR60" s="29"/>
       <c r="BS60" s="29"/>
       <c r="BT60" s="30"/>
@@ -8217,13 +8276,10 @@
       <c r="CA60" s="30"/>
       <c r="CB60" s="31"/>
     </row>
-    <row r="61" spans="1:80">
-      <c r="A61" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="56" t="s">
-        <v>68</v>
+    <row r="61" spans="2:80">
+      <c r="B61" s="39"/>
+      <c r="C61" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="29"/>
@@ -8257,16 +8313,14 @@
       <c r="AG61" s="29"/>
       <c r="AH61" s="37"/>
       <c r="AI61" s="29"/>
-      <c r="AJ61" s="29"/>
+      <c r="AJ61"/>
       <c r="AK61" s="30"/>
       <c r="AL61" s="31"/>
       <c r="AM61" s="55"/>
       <c r="AN61" s="55"/>
       <c r="AO61" s="55"/>
       <c r="AP61" s="55"/>
-      <c r="AQ61" s="55" t="s">
-        <v>26</v>
-      </c>
+      <c r="AQ61" s="55"/>
       <c r="AR61" s="30"/>
       <c r="AS61" s="31"/>
       <c r="AT61" s="29"/>
@@ -8292,7 +8346,7 @@
       <c r="BN61" s="31"/>
       <c r="BO61" s="29"/>
       <c r="BP61" s="29"/>
-      <c r="BQ61" s="38"/>
+      <c r="BQ61" s="29"/>
       <c r="BR61" s="29"/>
       <c r="BS61" s="29"/>
       <c r="BT61" s="30"/>
@@ -8305,11 +8359,10 @@
       <c r="CA61" s="30"/>
       <c r="CB61" s="31"/>
     </row>
-    <row r="62" spans="1:80">
-      <c r="A62" s="42"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="43" t="s">
-        <v>69</v>
+    <row r="62" spans="2:80">
+      <c r="B62" s="39"/>
+      <c r="C62" s="54" t="s">
+        <v>60</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="29"/>
@@ -8346,37 +8399,37 @@
       <c r="AJ62" s="29"/>
       <c r="AK62" s="30"/>
       <c r="AL62" s="31"/>
-      <c r="AM62" s="57"/>
-      <c r="AN62" s="57"/>
-      <c r="AO62" s="57"/>
-      <c r="AP62" s="57"/>
-      <c r="AQ62" s="57"/>
+      <c r="AM62" s="29"/>
+      <c r="AN62" s="29"/>
+      <c r="AO62" s="29"/>
+      <c r="AP62" s="29"/>
+      <c r="AQ62" s="29"/>
       <c r="AR62" s="30"/>
       <c r="AS62" s="31"/>
-      <c r="AT62" s="29"/>
-      <c r="AU62" s="29"/>
-      <c r="AV62" s="29"/>
-      <c r="AW62" s="29"/>
-      <c r="AX62" s="29"/>
+      <c r="AT62" s="53"/>
+      <c r="AU62" s="53"/>
+      <c r="AV62" s="53"/>
+      <c r="AW62" s="53"/>
+      <c r="AX62" s="53"/>
       <c r="AY62" s="30"/>
       <c r="AZ62" s="31"/>
-      <c r="BA62" s="29"/>
-      <c r="BB62" s="29"/>
-      <c r="BC62" s="29"/>
-      <c r="BD62" s="29"/>
-      <c r="BE62" s="29"/>
+      <c r="BA62" s="53"/>
+      <c r="BB62" s="53"/>
+      <c r="BC62" s="53"/>
+      <c r="BD62" s="53"/>
+      <c r="BE62" s="53"/>
       <c r="BF62" s="30"/>
       <c r="BG62" s="31"/>
-      <c r="BH62" s="29"/>
-      <c r="BI62" s="29"/>
-      <c r="BJ62" s="29"/>
-      <c r="BK62" s="29"/>
-      <c r="BL62" s="29"/>
+      <c r="BH62" s="53"/>
+      <c r="BI62" s="53"/>
+      <c r="BJ62" s="53"/>
+      <c r="BK62" s="53"/>
+      <c r="BL62" s="53"/>
       <c r="BM62" s="30"/>
       <c r="BN62" s="31"/>
       <c r="BO62" s="29"/>
       <c r="BP62" s="29"/>
-      <c r="BQ62" s="38"/>
+      <c r="BQ62" s="29"/>
       <c r="BR62" s="29"/>
       <c r="BS62" s="29"/>
       <c r="BT62" s="30"/>
@@ -8389,11 +8442,10 @@
       <c r="CA62" s="30"/>
       <c r="CB62" s="31"/>
     </row>
-    <row r="63" spans="1:80">
-      <c r="A63" s="42"/>
-      <c r="B63" s="40"/>
+    <row r="63" spans="2:80">
+      <c r="B63" s="39"/>
       <c r="C63" s="43" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="29"/>
@@ -8427,14 +8479,14 @@
       <c r="AG63" s="29"/>
       <c r="AH63" s="37"/>
       <c r="AI63" s="29"/>
-      <c r="AJ63"/>
+      <c r="AJ63" s="29"/>
       <c r="AK63" s="30"/>
       <c r="AL63" s="31"/>
-      <c r="AM63" s="57"/>
-      <c r="AN63" s="57"/>
-      <c r="AO63" s="57"/>
-      <c r="AP63" s="57"/>
-      <c r="AQ63" s="57"/>
+      <c r="AM63" s="29"/>
+      <c r="AN63" s="29"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="29"/>
+      <c r="AQ63" s="29"/>
       <c r="AR63" s="30"/>
       <c r="AS63" s="31"/>
       <c r="AT63" s="29"/>
@@ -8460,7 +8512,7 @@
       <c r="BN63" s="31"/>
       <c r="BO63" s="29"/>
       <c r="BP63" s="29"/>
-      <c r="BQ63" s="38"/>
+      <c r="BQ63" s="29"/>
       <c r="BR63" s="29"/>
       <c r="BS63" s="29"/>
       <c r="BT63" s="30"/>
@@ -8473,11 +8525,10 @@
       <c r="CA63" s="30"/>
       <c r="CB63" s="31"/>
     </row>
-    <row r="64" spans="1:80">
-      <c r="A64" s="42"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="56" t="s">
-        <v>71</v>
+    <row r="64" spans="2:80" ht="15" customHeight="1">
+      <c r="B64" s="39"/>
+      <c r="C64" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="29"/>
@@ -8514,21 +8565,27 @@
       <c r="AJ64" s="29"/>
       <c r="AK64" s="30"/>
       <c r="AL64" s="31"/>
-      <c r="AM64"/>
+      <c r="AM64" s="29"/>
+      <c r="AN64" s="29"/>
+      <c r="AO64" s="29"/>
+      <c r="AP64" s="29"/>
+      <c r="AQ64" s="29"/>
       <c r="AR64" s="30"/>
       <c r="AS64" s="31"/>
-      <c r="AT64" s="29"/>
-      <c r="AU64" s="29"/>
-      <c r="AV64" s="29"/>
-      <c r="AW64" s="29"/>
-      <c r="AX64" s="29"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="55"/>
+      <c r="AX64" s="55"/>
       <c r="AY64" s="30"/>
       <c r="AZ64" s="31"/>
-      <c r="BA64" s="53"/>
-      <c r="BB64" s="53"/>
-      <c r="BC64" s="53"/>
-      <c r="BD64" s="53"/>
-      <c r="BE64" s="53"/>
+      <c r="BA64" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB64" s="29"/>
+      <c r="BC64" s="29"/>
+      <c r="BD64" s="29"/>
+      <c r="BE64" s="29"/>
       <c r="BF64" s="30"/>
       <c r="BG64" s="31"/>
       <c r="BH64" s="29"/>
@@ -8540,7 +8597,7 @@
       <c r="BN64" s="31"/>
       <c r="BO64" s="29"/>
       <c r="BP64" s="29"/>
-      <c r="BQ64" s="38"/>
+      <c r="BQ64" s="29"/>
       <c r="BR64" s="29"/>
       <c r="BS64" s="29"/>
       <c r="BT64" s="30"/>
@@ -8553,13 +8610,10 @@
       <c r="CA64" s="30"/>
       <c r="CB64" s="31"/>
     </row>
-    <row r="65" spans="1:80">
-      <c r="A65" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="40"/>
+    <row r="65" spans="2:80" ht="15" customHeight="1">
+      <c r="B65" s="39"/>
       <c r="C65" s="43" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="29"/>
@@ -8596,7 +8650,11 @@
       <c r="AJ65" s="29"/>
       <c r="AK65" s="30"/>
       <c r="AL65" s="31"/>
-      <c r="AM65"/>
+      <c r="AM65" s="29"/>
+      <c r="AN65" s="29"/>
+      <c r="AO65" s="29"/>
+      <c r="AP65" s="29"/>
+      <c r="AQ65" s="29"/>
       <c r="AR65" s="30"/>
       <c r="AS65" s="31"/>
       <c r="AT65" s="29"/>
@@ -8622,7 +8680,7 @@
       <c r="BN65" s="31"/>
       <c r="BO65" s="29"/>
       <c r="BP65" s="29"/>
-      <c r="BQ65" s="38"/>
+      <c r="BQ65" s="29"/>
       <c r="BR65" s="29"/>
       <c r="BS65" s="29"/>
       <c r="BT65" s="30"/>
@@ -8635,13 +8693,10 @@
       <c r="CA65" s="30"/>
       <c r="CB65" s="31"/>
     </row>
-    <row r="66" spans="1:80" ht="15" customHeight="1">
-      <c r="A66" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="40"/>
+    <row r="66" spans="2:80">
+      <c r="B66" s="39"/>
       <c r="C66" s="43" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="29"/>
@@ -8685,32 +8740,30 @@
       <c r="AQ66" s="29"/>
       <c r="AR66" s="30"/>
       <c r="AS66" s="31"/>
-      <c r="AT66" s="57"/>
+      <c r="AT66" s="29"/>
       <c r="AU66" s="29"/>
       <c r="AV66" s="29"/>
       <c r="AW66" s="29"/>
       <c r="AX66" s="29"/>
       <c r="AY66" s="30"/>
       <c r="AZ66" s="31"/>
-      <c r="BA66" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB66" s="29"/>
-      <c r="BC66" s="29"/>
-      <c r="BD66" s="29"/>
-      <c r="BE66" s="29"/>
+      <c r="BA66" s="55"/>
+      <c r="BB66" s="55"/>
+      <c r="BC66" s="55"/>
+      <c r="BD66" s="55"/>
+      <c r="BE66" s="55"/>
       <c r="BF66" s="30"/>
       <c r="BG66" s="31"/>
-      <c r="BH66" s="29"/>
-      <c r="BI66" s="29"/>
-      <c r="BJ66" s="29"/>
-      <c r="BK66" s="29"/>
-      <c r="BL66" s="29"/>
+      <c r="BH66" s="55"/>
+      <c r="BI66" s="55"/>
+      <c r="BJ66" s="55"/>
+      <c r="BK66" s="55"/>
+      <c r="BL66" s="55"/>
       <c r="BM66" s="30"/>
       <c r="BN66" s="31"/>
       <c r="BO66" s="29"/>
       <c r="BP66" s="29"/>
-      <c r="BQ66" s="38"/>
+      <c r="BQ66" s="29"/>
       <c r="BR66" s="29"/>
       <c r="BS66" s="29"/>
       <c r="BT66" s="30"/>
@@ -8723,12 +8776,8 @@
       <c r="CA66" s="30"/>
       <c r="CB66" s="31"/>
     </row>
-    <row r="67" spans="1:80" ht="15" customHeight="1">
-      <c r="A67" s="42"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="43" t="s">
-        <v>75</v>
-      </c>
+    <row r="67" spans="2:80" ht="15" customHeight="1">
+      <c r="B67" s="39"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
@@ -8794,7 +8843,7 @@
       <c r="BN67" s="31"/>
       <c r="BO67" s="29"/>
       <c r="BP67" s="29"/>
-      <c r="BQ67" s="38"/>
+      <c r="BQ67" s="29"/>
       <c r="BR67" s="29"/>
       <c r="BS67" s="29"/>
       <c r="BT67" s="30"/>
@@ -8807,10 +8856,11 @@
       <c r="CA67" s="30"/>
       <c r="CB67" s="31"/>
     </row>
-    <row r="68" spans="1:80">
-      <c r="A68" s="42"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="59"/>
+    <row r="68" spans="2:80" ht="15" customHeight="1">
+      <c r="B68" s="39"/>
+      <c r="C68" s="56" t="s">
+        <v>65</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
@@ -8876,7 +8926,7 @@
       <c r="BN68" s="31"/>
       <c r="BO68" s="29"/>
       <c r="BP68" s="29"/>
-      <c r="BQ68" s="38"/>
+      <c r="BQ68" s="29"/>
       <c r="BR68" s="29"/>
       <c r="BS68" s="29"/>
       <c r="BT68" s="30"/>
@@ -8889,9 +8939,11 @@
       <c r="CA68" s="30"/>
       <c r="CB68" s="31"/>
     </row>
-    <row r="69" spans="1:80" ht="15" customHeight="1">
-      <c r="A69" s="42"/>
-      <c r="B69" s="40"/>
+    <row r="69" spans="2:80" ht="15" customHeight="1">
+      <c r="B69" s="39"/>
+      <c r="C69" s="57" t="s">
+        <v>66</v>
+      </c>
       <c r="D69" s="5"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -8899,11 +8951,11 @@
       <c r="H69" s="29"/>
       <c r="I69" s="30"/>
       <c r="J69" s="31"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
       <c r="P69" s="30"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="29"/>
@@ -8957,7 +9009,7 @@
       <c r="BN69" s="31"/>
       <c r="BO69" s="29"/>
       <c r="BP69" s="29"/>
-      <c r="BQ69" s="38"/>
+      <c r="BQ69" s="29"/>
       <c r="BR69" s="29"/>
       <c r="BS69" s="29"/>
       <c r="BT69" s="30"/>
@@ -8970,13 +9022,10 @@
       <c r="CA69" s="30"/>
       <c r="CB69" s="31"/>
     </row>
-    <row r="70" spans="1:80" ht="15" customHeight="1">
-      <c r="A70" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="61" t="s">
-        <v>76</v>
+    <row r="70" spans="2:80" ht="15" customHeight="1">
+      <c r="B70" s="39"/>
+      <c r="C70" s="57" t="s">
+        <v>67</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="29"/>
@@ -8985,46 +9034,46 @@
       <c r="H70" s="29"/>
       <c r="I70" s="30"/>
       <c r="J70" s="31"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="62"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
       <c r="P70" s="30"/>
       <c r="Q70" s="31"/>
-      <c r="R70" s="62"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="62"/>
-      <c r="U70" s="62"/>
+      <c r="R70" s="58"/>
+      <c r="S70" s="58"/>
+      <c r="T70" s="58"/>
+      <c r="U70" s="58"/>
       <c r="V70" s="37"/>
       <c r="W70" s="30"/>
       <c r="X70" s="31"/>
-      <c r="Y70" s="62"/>
-      <c r="Z70" s="62"/>
-      <c r="AA70" s="62"/>
-      <c r="AB70" s="62"/>
+      <c r="Y70" s="58"/>
+      <c r="Z70" s="58"/>
+      <c r="AA70" s="58"/>
+      <c r="AB70" s="58"/>
       <c r="AC70" s="37"/>
       <c r="AD70" s="30"/>
       <c r="AE70" s="31"/>
-      <c r="AF70" s="62"/>
-      <c r="AG70" s="62"/>
+      <c r="AF70" s="29"/>
+      <c r="AG70" s="29"/>
       <c r="AH70" s="37"/>
-      <c r="AI70" s="62"/>
-      <c r="AJ70" s="62"/>
+      <c r="AI70" s="29"/>
+      <c r="AJ70" s="29"/>
       <c r="AK70" s="30"/>
       <c r="AL70" s="31"/>
-      <c r="AM70" s="62"/>
-      <c r="AN70" s="62"/>
-      <c r="AO70" s="62"/>
-      <c r="AP70" s="62"/>
-      <c r="AQ70" s="62"/>
+      <c r="AM70" s="29"/>
+      <c r="AN70" s="29"/>
+      <c r="AO70" s="29"/>
+      <c r="AP70" s="29"/>
+      <c r="AQ70" s="29"/>
       <c r="AR70" s="30"/>
       <c r="AS70" s="31"/>
-      <c r="AT70" s="62"/>
-      <c r="AU70" s="62"/>
-      <c r="AV70" s="62"/>
-      <c r="AW70" s="62"/>
-      <c r="AX70" s="62"/>
+      <c r="AT70" s="29"/>
+      <c r="AU70" s="29"/>
+      <c r="AV70" s="29"/>
+      <c r="AW70" s="29"/>
+      <c r="AX70" s="29"/>
       <c r="AY70" s="30"/>
       <c r="AZ70" s="31"/>
       <c r="BA70" s="29"/>
@@ -9034,16 +9083,16 @@
       <c r="BE70" s="29"/>
       <c r="BF70" s="30"/>
       <c r="BG70" s="31"/>
-      <c r="BH70" s="62"/>
-      <c r="BI70" s="62"/>
-      <c r="BJ70" s="62"/>
-      <c r="BK70" s="62"/>
-      <c r="BL70" s="62"/>
+      <c r="BH70" s="29"/>
+      <c r="BI70" s="29"/>
+      <c r="BJ70" s="29"/>
+      <c r="BK70" s="29"/>
+      <c r="BL70" s="29"/>
       <c r="BM70" s="30"/>
       <c r="BN70" s="31"/>
-      <c r="BO70" s="62"/>
-      <c r="BP70" s="62"/>
-      <c r="BQ70" s="38"/>
+      <c r="BO70" s="29"/>
+      <c r="BP70" s="29"/>
+      <c r="BQ70" s="29"/>
       <c r="BR70" s="29"/>
       <c r="BS70" s="29"/>
       <c r="BT70" s="30"/>
@@ -9056,11 +9105,10 @@
       <c r="CA70" s="30"/>
       <c r="CB70" s="31"/>
     </row>
-    <row r="71" spans="1:80" ht="15" customHeight="1">
-      <c r="A71" s="42"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="63" t="s">
-        <v>77</v>
+    <row r="71" spans="2:80" ht="15" customHeight="1">
+      <c r="B71" s="39"/>
+      <c r="C71" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="29"/>
@@ -9083,15 +9131,15 @@
       <c r="V71" s="37"/>
       <c r="W71" s="30"/>
       <c r="X71" s="31"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="59"/>
+      <c r="AB71" s="59"/>
       <c r="AC71" s="37"/>
       <c r="AD71" s="30"/>
       <c r="AE71" s="31"/>
-      <c r="AF71" s="29"/>
-      <c r="AG71" s="29"/>
+      <c r="AF71" s="59"/>
+      <c r="AG71" s="59"/>
       <c r="AH71" s="37"/>
       <c r="AI71" s="29"/>
       <c r="AJ71" s="29"/>
@@ -9111,23 +9159,23 @@
       <c r="AX71" s="29"/>
       <c r="AY71" s="30"/>
       <c r="AZ71" s="31"/>
-      <c r="BA71" s="29"/>
-      <c r="BB71" s="29"/>
-      <c r="BC71" s="29"/>
-      <c r="BD71" s="29"/>
-      <c r="BE71" s="29"/>
+      <c r="BA71" s="59"/>
+      <c r="BB71" s="59"/>
+      <c r="BC71" s="59"/>
+      <c r="BD71" s="59"/>
+      <c r="BE71" s="59"/>
       <c r="BF71" s="30"/>
       <c r="BG71" s="31"/>
-      <c r="BH71" s="29"/>
-      <c r="BI71" s="29"/>
-      <c r="BJ71" s="29"/>
-      <c r="BK71" s="29"/>
-      <c r="BL71" s="29"/>
+      <c r="BH71" s="59"/>
+      <c r="BI71" s="59"/>
+      <c r="BJ71" s="59"/>
+      <c r="BK71" s="59"/>
+      <c r="BL71" s="59"/>
       <c r="BM71" s="30"/>
       <c r="BN71" s="31"/>
       <c r="BO71" s="29"/>
       <c r="BP71" s="29"/>
-      <c r="BQ71" s="38"/>
+      <c r="BQ71" s="29"/>
       <c r="BR71" s="29"/>
       <c r="BS71" s="29"/>
       <c r="BT71" s="30"/>
@@ -9140,11 +9188,10 @@
       <c r="CA71" s="30"/>
       <c r="CB71" s="31"/>
     </row>
-    <row r="72" spans="1:80" ht="15" customHeight="1">
-      <c r="A72" s="42"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="63" t="s">
-        <v>78</v>
+    <row r="72" spans="2:80" ht="15" customHeight="1">
+      <c r="B72" s="39"/>
+      <c r="C72" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="29"/>
@@ -9163,19 +9210,19 @@
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
       <c r="T72" s="29"/>
-      <c r="U72"/>
+      <c r="U72" s="29"/>
       <c r="V72" s="37"/>
       <c r="W72" s="30"/>
       <c r="X72" s="31"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
+      <c r="Y72" s="58"/>
+      <c r="Z72" s="58"/>
+      <c r="AA72" s="58"/>
+      <c r="AB72" s="58"/>
       <c r="AC72" s="37"/>
       <c r="AD72" s="30"/>
       <c r="AE72" s="31"/>
-      <c r="AF72" s="29"/>
-      <c r="AG72" s="29"/>
+      <c r="AF72" s="58"/>
+      <c r="AG72" s="58"/>
       <c r="AH72" s="37"/>
       <c r="AI72" s="29"/>
       <c r="AJ72" s="29"/>
@@ -9211,7 +9258,7 @@
       <c r="BN72" s="31"/>
       <c r="BO72" s="29"/>
       <c r="BP72" s="29"/>
-      <c r="BQ72" s="38"/>
+      <c r="BQ72" s="29"/>
       <c r="BR72" s="29"/>
       <c r="BS72" s="29"/>
       <c r="BT72" s="30"/>
@@ -9224,11 +9271,10 @@
       <c r="CA72" s="30"/>
       <c r="CB72" s="31"/>
     </row>
-    <row r="73" spans="1:80" ht="15" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="63" t="s">
-        <v>79</v>
+    <row r="73" spans="2:80" ht="15" customHeight="1">
+      <c r="B73" s="39"/>
+      <c r="C73" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="29"/>
@@ -9251,15 +9297,15 @@
       <c r="V73" s="37"/>
       <c r="W73" s="30"/>
       <c r="X73" s="31"/>
-      <c r="Y73"/>
-      <c r="Z73" s="29"/>
-      <c r="AA73" s="29"/>
-      <c r="AB73" s="29"/>
+      <c r="Y73" s="58"/>
+      <c r="Z73" s="58"/>
+      <c r="AA73" s="58"/>
+      <c r="AB73" s="58"/>
       <c r="AC73" s="37"/>
       <c r="AD73" s="30"/>
       <c r="AE73" s="31"/>
-      <c r="AF73" s="29"/>
-      <c r="AG73" s="29"/>
+      <c r="AF73" s="58"/>
+      <c r="AG73" s="58"/>
       <c r="AH73" s="37"/>
       <c r="AI73" s="29"/>
       <c r="AJ73" s="29"/>
@@ -9295,7 +9341,7 @@
       <c r="BN73" s="31"/>
       <c r="BO73" s="29"/>
       <c r="BP73" s="29"/>
-      <c r="BQ73" s="38"/>
+      <c r="BQ73" s="29"/>
       <c r="BR73" s="29"/>
       <c r="BS73" s="29"/>
       <c r="BT73" s="30"/>
@@ -9308,11 +9354,10 @@
       <c r="CA73" s="30"/>
       <c r="CB73" s="31"/>
     </row>
-    <row r="74" spans="1:80" ht="33" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="64" t="s">
-        <v>80</v>
+    <row r="74" spans="2:80" ht="15" customHeight="1">
+      <c r="B74" s="39"/>
+      <c r="C74" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="29"/>
@@ -9363,23 +9408,23 @@
       <c r="AX74" s="29"/>
       <c r="AY74" s="30"/>
       <c r="AZ74" s="31"/>
-      <c r="BA74" s="29"/>
-      <c r="BB74" s="29"/>
-      <c r="BC74" s="29"/>
-      <c r="BD74" s="29"/>
-      <c r="BE74" s="29"/>
+      <c r="BA74" s="58"/>
+      <c r="BB74" s="58"/>
+      <c r="BC74" s="58"/>
+      <c r="BD74" s="58"/>
+      <c r="BE74" s="58"/>
       <c r="BF74" s="30"/>
       <c r="BG74" s="31"/>
-      <c r="BH74" s="29"/>
-      <c r="BI74" s="29"/>
-      <c r="BJ74" s="29"/>
-      <c r="BK74" s="29"/>
-      <c r="BL74" s="29"/>
+      <c r="BH74" s="58"/>
+      <c r="BI74" s="58"/>
+      <c r="BJ74" s="58"/>
+      <c r="BK74" s="58"/>
+      <c r="BL74" s="58"/>
       <c r="BM74" s="30"/>
       <c r="BN74" s="31"/>
       <c r="BO74" s="29"/>
       <c r="BP74" s="29"/>
-      <c r="BQ74" s="38"/>
+      <c r="BQ74" s="29"/>
       <c r="BR74" s="29"/>
       <c r="BS74" s="29"/>
       <c r="BT74" s="30"/>
@@ -9392,11 +9437,10 @@
       <c r="CA74" s="30"/>
       <c r="CB74" s="31"/>
     </row>
-    <row r="75" spans="1:80">
-      <c r="A75" s="42"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="43" t="s">
-        <v>81</v>
+    <row r="75" spans="2:80">
+      <c r="B75" s="39"/>
+      <c r="C75" s="60" t="s">
+        <v>72</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="29"/>
@@ -9426,11 +9470,11 @@
       <c r="AC75" s="37"/>
       <c r="AD75" s="30"/>
       <c r="AE75" s="31"/>
-      <c r="AF75" s="29"/>
-      <c r="AG75" s="29"/>
+      <c r="AF75" s="59"/>
+      <c r="AG75" s="59"/>
       <c r="AH75" s="37"/>
-      <c r="AI75" s="29"/>
-      <c r="AJ75" s="29"/>
+      <c r="AI75" s="59"/>
+      <c r="AJ75" s="59"/>
       <c r="AK75" s="30"/>
       <c r="AL75" s="31"/>
       <c r="AM75" s="29"/>
@@ -9461,11 +9505,11 @@
       <c r="BL75" s="29"/>
       <c r="BM75" s="30"/>
       <c r="BN75" s="31"/>
-      <c r="BO75" s="29"/>
-      <c r="BP75" s="29"/>
-      <c r="BQ75" s="38"/>
-      <c r="BR75" s="29"/>
-      <c r="BS75" s="29"/>
+      <c r="BO75" s="59"/>
+      <c r="BP75" s="59"/>
+      <c r="BQ75" s="59"/>
+      <c r="BR75" s="59"/>
+      <c r="BS75" s="59"/>
       <c r="BT75" s="30"/>
       <c r="BU75" s="38"/>
       <c r="BV75" s="29"/>
@@ -9476,11 +9520,10 @@
       <c r="CA75" s="30"/>
       <c r="CB75" s="31"/>
     </row>
-    <row r="76" spans="1:80" ht="28.5" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="64" t="s">
-        <v>82</v>
+    <row r="76" spans="2:80">
+      <c r="B76" s="39"/>
+      <c r="C76" s="60" t="s">
+        <v>73</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="29"/>
@@ -9531,23 +9574,23 @@
       <c r="AX76" s="29"/>
       <c r="AY76" s="30"/>
       <c r="AZ76" s="31"/>
-      <c r="BA76" s="29"/>
-      <c r="BB76" s="29"/>
-      <c r="BC76" s="29"/>
-      <c r="BD76" s="29"/>
-      <c r="BE76" s="29"/>
+      <c r="BA76" s="59"/>
+      <c r="BB76" s="59"/>
+      <c r="BC76" s="59"/>
+      <c r="BD76" s="59"/>
+      <c r="BE76" s="59"/>
       <c r="BF76" s="30"/>
       <c r="BG76" s="31"/>
-      <c r="BH76" s="29"/>
-      <c r="BI76" s="29"/>
-      <c r="BJ76" s="29"/>
-      <c r="BK76" s="29"/>
-      <c r="BL76" s="29"/>
+      <c r="BH76" s="59"/>
+      <c r="BI76" s="59"/>
+      <c r="BJ76" s="59"/>
+      <c r="BK76" s="59"/>
+      <c r="BL76" s="59"/>
       <c r="BM76" s="30"/>
       <c r="BN76" s="31"/>
-      <c r="BO76" s="29"/>
-      <c r="BP76" s="29"/>
-      <c r="BQ76" s="38"/>
+      <c r="BO76" s="59"/>
+      <c r="BP76" s="59"/>
+      <c r="BQ76" s="59"/>
       <c r="BR76" s="29"/>
       <c r="BS76" s="29"/>
       <c r="BT76" s="30"/>
@@ -9560,11 +9603,10 @@
       <c r="CA76" s="30"/>
       <c r="CB76" s="31"/>
     </row>
-    <row r="77" spans="1:80" ht="15" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="43" t="s">
-        <v>83</v>
+    <row r="77" spans="2:80" ht="15" customHeight="1">
+      <c r="B77" s="39"/>
+      <c r="C77" s="57" t="s">
+        <v>74</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="29"/>
@@ -9601,8 +9643,8 @@
       <c r="AJ77" s="29"/>
       <c r="AK77" s="30"/>
       <c r="AL77" s="31"/>
-      <c r="AM77" s="29"/>
-      <c r="AN77" s="29"/>
+      <c r="AM77" s="59"/>
+      <c r="AN77" s="59"/>
       <c r="AO77" s="29"/>
       <c r="AP77" s="29"/>
       <c r="AQ77" s="29"/>
@@ -9629,11 +9671,11 @@
       <c r="BL77" s="29"/>
       <c r="BM77" s="30"/>
       <c r="BN77" s="31"/>
-      <c r="BO77" s="29"/>
-      <c r="BP77" s="29"/>
-      <c r="BQ77" s="38"/>
-      <c r="BR77" s="29"/>
-      <c r="BS77" s="29"/>
+      <c r="BO77" s="59"/>
+      <c r="BP77" s="59"/>
+      <c r="BQ77" s="59"/>
+      <c r="BR77" s="59"/>
+      <c r="BS77" s="59"/>
       <c r="BT77" s="30"/>
       <c r="BU77" s="38"/>
       <c r="BV77" s="29"/>
@@ -9644,12 +9686,8 @@
       <c r="CA77" s="30"/>
       <c r="CB77" s="31"/>
     </row>
-    <row r="78" spans="1:80" ht="15" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="63" t="s">
-        <v>84</v>
-      </c>
+    <row r="78" spans="2:80" ht="15" customHeight="1">
+      <c r="B78" s="39"/>
       <c r="D78" s="5"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
@@ -9671,7 +9709,7 @@
       <c r="V78" s="37"/>
       <c r="W78" s="30"/>
       <c r="X78" s="31"/>
-      <c r="Y78"/>
+      <c r="Y78" s="29"/>
       <c r="Z78" s="29"/>
       <c r="AA78" s="29"/>
       <c r="AB78" s="29"/>
@@ -9715,7 +9753,7 @@
       <c r="BN78" s="31"/>
       <c r="BO78" s="29"/>
       <c r="BP78" s="29"/>
-      <c r="BQ78" s="38"/>
+      <c r="BQ78" s="29"/>
       <c r="BR78" s="29"/>
       <c r="BS78" s="29"/>
       <c r="BT78" s="30"/>
@@ -9728,10 +9766,11 @@
       <c r="CA78" s="30"/>
       <c r="CB78" s="31"/>
     </row>
-    <row r="79" spans="1:80" ht="15" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="63"/>
+    <row r="79" spans="2:80" ht="15" customHeight="1">
+      <c r="B79" s="39"/>
+      <c r="C79" s="61" t="s">
+        <v>75</v>
+      </c>
       <c r="D79" s="5"/>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
@@ -9753,7 +9792,7 @@
       <c r="V79" s="37"/>
       <c r="W79" s="30"/>
       <c r="X79" s="31"/>
-      <c r="Y79"/>
+      <c r="Y79" s="29"/>
       <c r="Z79" s="29"/>
       <c r="AA79" s="29"/>
       <c r="AB79" s="29"/>
@@ -9774,21 +9813,13 @@
       <c r="AQ79" s="29"/>
       <c r="AR79" s="30"/>
       <c r="AS79" s="31"/>
-      <c r="AT79" s="29"/>
-      <c r="AU79" s="29"/>
-      <c r="AV79" s="29"/>
-      <c r="AW79" s="29"/>
-      <c r="AX79" s="29"/>
       <c r="AY79" s="30"/>
       <c r="AZ79" s="31"/>
-      <c r="BA79" s="29"/>
-      <c r="BB79" s="29"/>
       <c r="BC79" s="29"/>
       <c r="BD79" s="29"/>
       <c r="BE79" s="29"/>
       <c r="BF79" s="30"/>
       <c r="BG79" s="31"/>
-      <c r="BH79" s="29"/>
       <c r="BI79" s="29"/>
       <c r="BJ79" s="29"/>
       <c r="BK79" s="29"/>
@@ -9797,7 +9828,7 @@
       <c r="BN79" s="31"/>
       <c r="BO79" s="29"/>
       <c r="BP79" s="29"/>
-      <c r="BQ79" s="38"/>
+      <c r="BQ79" s="29"/>
       <c r="BR79" s="29"/>
       <c r="BS79" s="29"/>
       <c r="BT79" s="30"/>
@@ -9810,9 +9841,11 @@
       <c r="CA79" s="30"/>
       <c r="CB79" s="31"/>
     </row>
-    <row r="80" spans="1:80" ht="15" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="40"/>
+    <row r="80" spans="2:80" ht="15" customHeight="1">
+      <c r="B80" s="39"/>
+      <c r="C80" s="62" t="s">
+        <v>76</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
@@ -9855,22 +9888,26 @@
       <c r="AQ80" s="29"/>
       <c r="AR80" s="30"/>
       <c r="AS80" s="31"/>
-      <c r="AT80" s="29"/>
-      <c r="AU80" s="29"/>
-      <c r="AV80" s="29"/>
-      <c r="AW80" s="29"/>
-      <c r="AX80" s="29"/>
+      <c r="AT80" s="63"/>
+      <c r="AU80" s="63"/>
+      <c r="AV80" s="63"/>
+      <c r="AW80" s="63"/>
+      <c r="AX80" s="63"/>
       <c r="AY80" s="30"/>
       <c r="AZ80" s="31"/>
-      <c r="BA80" s="29"/>
-      <c r="BB80" s="29"/>
+      <c r="BA80" s="63"/>
+      <c r="BB80" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="BC80" s="29"/>
       <c r="BD80" s="29"/>
       <c r="BE80" s="29"/>
       <c r="BF80" s="30"/>
       <c r="BG80" s="31"/>
-      <c r="BH80" s="29"/>
-      <c r="BI80" s="29"/>
+      <c r="BH80" s="63"/>
+      <c r="BI80" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="BJ80" s="29"/>
       <c r="BK80" s="29"/>
       <c r="BL80" s="29"/>
@@ -9878,7 +9915,7 @@
       <c r="BN80" s="31"/>
       <c r="BO80" s="29"/>
       <c r="BP80" s="29"/>
-      <c r="BQ80" s="38"/>
+      <c r="BQ80" s="29"/>
       <c r="BR80" s="29"/>
       <c r="BS80" s="29"/>
       <c r="BT80" s="30"/>
@@ -9891,11 +9928,10 @@
       <c r="CA80" s="30"/>
       <c r="CB80" s="31"/>
     </row>
-    <row r="81" spans="1:80" ht="15" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="65" t="s">
-        <v>85</v>
+    <row r="81" spans="2:80" ht="15" customHeight="1" thickBot="1">
+      <c r="B81" s="65"/>
+      <c r="C81" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="29"/>
@@ -9939,32 +9975,30 @@
       <c r="AQ81" s="29"/>
       <c r="AR81" s="30"/>
       <c r="AS81" s="31"/>
-      <c r="AT81" s="66"/>
-      <c r="AU81" s="66"/>
-      <c r="AV81" s="66"/>
-      <c r="AW81" s="66"/>
-      <c r="AX81" s="67" t="s">
-        <v>26</v>
-      </c>
+      <c r="AT81" s="45"/>
+      <c r="AU81" s="45"/>
+      <c r="AV81" s="45"/>
+      <c r="AW81" s="45"/>
+      <c r="AX81" s="45"/>
       <c r="AY81" s="30"/>
       <c r="AZ81" s="31"/>
-      <c r="BA81" s="66"/>
-      <c r="BB81" s="66"/>
-      <c r="BC81" s="66"/>
-      <c r="BD81" s="66"/>
-      <c r="BE81" s="66"/>
+      <c r="BA81" s="29"/>
+      <c r="BB81" s="29"/>
+      <c r="BC81" s="29"/>
+      <c r="BD81" s="29"/>
+      <c r="BE81" s="29"/>
       <c r="BF81" s="30"/>
       <c r="BG81" s="31"/>
-      <c r="BH81" s="66"/>
-      <c r="BI81" s="66"/>
-      <c r="BJ81" s="66"/>
-      <c r="BK81" s="66"/>
-      <c r="BL81" s="66"/>
+      <c r="BH81" s="29"/>
+      <c r="BI81" s="29"/>
+      <c r="BJ81" s="29"/>
+      <c r="BK81" s="29"/>
+      <c r="BL81" s="29"/>
       <c r="BM81" s="30"/>
       <c r="BN81" s="31"/>
-      <c r="BO81" s="66"/>
-      <c r="BP81" s="66"/>
-      <c r="BQ81" s="38"/>
+      <c r="BO81" s="29"/>
+      <c r="BP81" s="29"/>
+      <c r="BQ81" s="29"/>
       <c r="BR81" s="29"/>
       <c r="BS81" s="29"/>
       <c r="BT81" s="30"/>
@@ -9977,13 +10011,10 @@
       <c r="CA81" s="30"/>
       <c r="CB81" s="31"/>
     </row>
-    <row r="82" spans="1:80" ht="15" customHeight="1">
-      <c r="A82" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="68" t="s">
-        <v>86</v>
+    <row r="82" spans="2:80" ht="15" customHeight="1" thickBot="1">
+      <c r="B82" s="39"/>
+      <c r="C82" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="29"/>
@@ -10050,7 +10081,7 @@
       <c r="BN82" s="31"/>
       <c r="BO82" s="29"/>
       <c r="BP82" s="29"/>
-      <c r="BQ82" s="38"/>
+      <c r="BQ82" s="29"/>
       <c r="BR82" s="29"/>
       <c r="BS82" s="29"/>
       <c r="BT82" s="30"/>
@@ -10063,11 +10094,10 @@
       <c r="CA82" s="30"/>
       <c r="CB82" s="31"/>
     </row>
-    <row r="83" spans="1:80" ht="15" customHeight="1" thickBot="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="69"/>
+    <row r="83" spans="2:80" ht="15" customHeight="1">
+      <c r="B83" s="66"/>
       <c r="C83" s="43" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="29"/>
@@ -10134,7 +10164,7 @@
       <c r="BN83" s="31"/>
       <c r="BO83" s="29"/>
       <c r="BP83" s="29"/>
-      <c r="BQ83" s="38"/>
+      <c r="BQ83" s="29"/>
       <c r="BR83" s="29"/>
       <c r="BS83" s="29"/>
       <c r="BT83" s="30"/>
@@ -10147,11 +10177,10 @@
       <c r="CA83" s="30"/>
       <c r="CB83" s="31"/>
     </row>
-    <row r="84" spans="1:80" ht="15" customHeight="1" thickBot="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="40"/>
+    <row r="84" spans="2:80" ht="15" customHeight="1">
+      <c r="B84" s="67"/>
       <c r="C84" s="43" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="29"/>
@@ -10170,11 +10199,11 @@
       <c r="R84" s="29"/>
       <c r="S84" s="29"/>
       <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
+      <c r="U84"/>
       <c r="V84" s="37"/>
       <c r="W84" s="30"/>
       <c r="X84" s="31"/>
-      <c r="Y84" s="29"/>
+      <c r="Y84"/>
       <c r="Z84" s="29"/>
       <c r="AA84" s="29"/>
       <c r="AB84" s="29"/>
@@ -10218,7 +10247,7 @@
       <c r="BN84" s="31"/>
       <c r="BO84" s="29"/>
       <c r="BP84" s="29"/>
-      <c r="BQ84" s="38"/>
+      <c r="BQ84" s="29"/>
       <c r="BR84" s="29"/>
       <c r="BS84" s="29"/>
       <c r="BT84" s="30"/>
@@ -10231,11 +10260,10 @@
       <c r="CA84" s="30"/>
       <c r="CB84" s="31"/>
     </row>
-    <row r="85" spans="1:80" ht="15" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="70"/>
+    <row r="85" spans="2:80" ht="15" customHeight="1">
+      <c r="B85" s="67"/>
       <c r="C85" s="43" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="29"/>
@@ -10279,15 +10307,15 @@
       <c r="AQ85" s="29"/>
       <c r="AR85" s="30"/>
       <c r="AS85" s="31"/>
-      <c r="AT85" s="45"/>
-      <c r="AU85" s="45"/>
-      <c r="AV85" s="45"/>
-      <c r="AW85" s="45"/>
-      <c r="AX85" s="45"/>
+      <c r="AT85" s="29"/>
+      <c r="AU85" s="29"/>
+      <c r="AV85" s="29"/>
+      <c r="AW85" s="29"/>
+      <c r="AX85" s="29"/>
       <c r="AY85" s="30"/>
       <c r="AZ85" s="31"/>
-      <c r="BA85" s="29"/>
-      <c r="BB85" s="29"/>
+      <c r="BA85" s="45"/>
+      <c r="BB85" s="45"/>
       <c r="BC85" s="29"/>
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
@@ -10302,7 +10330,7 @@
       <c r="BN85" s="31"/>
       <c r="BO85" s="29"/>
       <c r="BP85" s="29"/>
-      <c r="BQ85" s="38"/>
+      <c r="BQ85" s="29"/>
       <c r="BR85" s="29"/>
       <c r="BS85" s="29"/>
       <c r="BT85" s="30"/>
@@ -10315,11 +10343,10 @@
       <c r="CA85" s="30"/>
       <c r="CB85" s="31"/>
     </row>
-    <row r="86" spans="1:80" ht="15" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="71"/>
+    <row r="86" spans="2:80" ht="15" customHeight="1">
+      <c r="B86" s="67"/>
       <c r="C86" s="43" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="29"/>
@@ -10338,11 +10365,11 @@
       <c r="R86" s="29"/>
       <c r="S86" s="29"/>
       <c r="T86" s="29"/>
-      <c r="U86"/>
+      <c r="U86" s="29"/>
       <c r="V86" s="37"/>
       <c r="W86" s="30"/>
       <c r="X86" s="31"/>
-      <c r="Y86"/>
+      <c r="Y86" s="29"/>
       <c r="Z86" s="29"/>
       <c r="AA86" s="29"/>
       <c r="AB86" s="29"/>
@@ -10363,22 +10390,19 @@
       <c r="AQ86" s="29"/>
       <c r="AR86" s="30"/>
       <c r="AS86" s="31"/>
-      <c r="AT86" s="45"/>
-      <c r="AU86" s="45"/>
-      <c r="AV86" s="45"/>
-      <c r="AW86" s="45"/>
-      <c r="AX86" s="45"/>
+      <c r="AT86" s="29"/>
+      <c r="AU86" s="29"/>
+      <c r="AV86" s="29"/>
+      <c r="AW86" s="29"/>
+      <c r="AX86" s="29"/>
       <c r="AY86" s="30"/>
       <c r="AZ86" s="31"/>
-      <c r="BA86" s="29"/>
-      <c r="BB86" s="29"/>
-      <c r="BC86" s="29"/>
       <c r="BD86" s="29"/>
       <c r="BE86" s="29"/>
       <c r="BF86" s="30"/>
       <c r="BG86" s="31"/>
-      <c r="BH86" s="29"/>
-      <c r="BI86" s="29"/>
+      <c r="BH86" s="45"/>
+      <c r="BI86" s="45"/>
       <c r="BJ86" s="29"/>
       <c r="BK86" s="29"/>
       <c r="BL86" s="29"/>
@@ -10386,7 +10410,7 @@
       <c r="BN86" s="31"/>
       <c r="BO86" s="29"/>
       <c r="BP86" s="29"/>
-      <c r="BQ86" s="38"/>
+      <c r="BQ86" s="29"/>
       <c r="BR86" s="29"/>
       <c r="BS86" s="29"/>
       <c r="BT86" s="30"/>
@@ -10399,11 +10423,10 @@
       <c r="CA86" s="30"/>
       <c r="CB86" s="31"/>
     </row>
-    <row r="87" spans="1:80" ht="15" customHeight="1">
-      <c r="A87" s="42"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="43" t="s">
-        <v>91</v>
+    <row r="87" spans="2:80" ht="15" customHeight="1">
+      <c r="B87" s="67"/>
+      <c r="C87" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="29"/>
@@ -10454,11 +10477,12 @@
       <c r="AX87" s="29"/>
       <c r="AY87" s="30"/>
       <c r="AZ87" s="31"/>
-      <c r="BA87" s="53"/>
-      <c r="BB87" s="53"/>
-      <c r="BC87" s="53"/>
-      <c r="BD87" s="53"/>
-      <c r="BE87" s="53"/>
+      <c r="BA87" s="63"/>
+      <c r="BB87" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD87" s="29"/>
+      <c r="BE87" s="29"/>
       <c r="BF87" s="30"/>
       <c r="BG87" s="31"/>
       <c r="BH87" s="29"/>
@@ -10470,7 +10494,7 @@
       <c r="BN87" s="31"/>
       <c r="BO87" s="29"/>
       <c r="BP87" s="29"/>
-      <c r="BQ87" s="38"/>
+      <c r="BQ87" s="29"/>
       <c r="BR87" s="29"/>
       <c r="BS87" s="29"/>
       <c r="BT87" s="30"/>
@@ -10483,13 +10507,10 @@
       <c r="CA87" s="30"/>
       <c r="CB87" s="31"/>
     </row>
-    <row r="88" spans="1:80" ht="15" customHeight="1">
-      <c r="A88" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="68" t="s">
-        <v>93</v>
+    <row r="88" spans="2:80" ht="15" customHeight="1">
+      <c r="B88" s="67"/>
+      <c r="C88" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="29"/>
@@ -10541,9 +10562,11 @@
       <c r="AY88" s="30"/>
       <c r="AZ88" s="31"/>
       <c r="BA88" s="29"/>
-      <c r="BB88" s="29"/>
-      <c r="BC88" s="29"/>
-      <c r="BD88" s="29"/>
+      <c r="BB88" s="63"/>
+      <c r="BC88" s="63"/>
+      <c r="BD88" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="BE88" s="29"/>
       <c r="BF88" s="30"/>
       <c r="BG88" s="31"/>
@@ -10556,7 +10579,7 @@
       <c r="BN88" s="31"/>
       <c r="BO88" s="29"/>
       <c r="BP88" s="29"/>
-      <c r="BQ88" s="38"/>
+      <c r="BQ88" s="29"/>
       <c r="BR88" s="29"/>
       <c r="BS88" s="29"/>
       <c r="BT88" s="30"/>
@@ -10569,13 +10592,10 @@
       <c r="CA88" s="30"/>
       <c r="CB88" s="31"/>
     </row>
-    <row r="89" spans="1:80" ht="15" customHeight="1">
-      <c r="A89" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="71"/>
+    <row r="89" spans="2:80" ht="15" customHeight="1">
+      <c r="B89" s="67"/>
       <c r="C89" s="43" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="29"/>
@@ -10627,7 +10647,7 @@
       <c r="AY89" s="30"/>
       <c r="AZ89" s="31"/>
       <c r="BA89" s="29"/>
-      <c r="BB89" s="29"/>
+      <c r="BB89" s="45"/>
       <c r="BC89" s="29"/>
       <c r="BD89" s="29"/>
       <c r="BE89" s="29"/>
@@ -10642,7 +10662,7 @@
       <c r="BN89" s="31"/>
       <c r="BO89" s="29"/>
       <c r="BP89" s="29"/>
-      <c r="BQ89" s="38"/>
+      <c r="BQ89" s="29"/>
       <c r="BR89" s="29"/>
       <c r="BS89" s="29"/>
       <c r="BT89" s="30"/>
@@ -10655,13 +10675,10 @@
       <c r="CA89" s="30"/>
       <c r="CB89" s="31"/>
     </row>
-    <row r="90" spans="1:80" ht="15" customHeight="1">
-      <c r="A90" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B90" s="71"/>
+    <row r="90" spans="2:80" ht="15" customHeight="1">
+      <c r="B90" s="67"/>
       <c r="C90" s="43" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="29"/>
@@ -10710,12 +10727,12 @@
       <c r="AV90" s="29"/>
       <c r="AW90" s="29"/>
       <c r="AX90" s="45" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AY90" s="30"/>
       <c r="AZ90" s="31"/>
       <c r="BA90" s="29"/>
-      <c r="BB90" s="29"/>
+      <c r="BB90" s="45"/>
       <c r="BC90" s="29"/>
       <c r="BD90" s="29"/>
       <c r="BE90" s="29"/>
@@ -10730,7 +10747,7 @@
       <c r="BN90" s="31"/>
       <c r="BO90" s="29"/>
       <c r="BP90" s="29"/>
-      <c r="BQ90" s="38"/>
+      <c r="BQ90" s="29"/>
       <c r="BR90" s="29"/>
       <c r="BS90" s="29"/>
       <c r="BT90" s="30"/>
@@ -10743,13 +10760,10 @@
       <c r="CA90" s="30"/>
       <c r="CB90" s="31"/>
     </row>
-    <row r="91" spans="1:80" ht="15" customHeight="1">
-      <c r="A91" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="71"/>
+    <row r="91" spans="2:80" ht="15" customHeight="1">
+      <c r="B91" s="67"/>
       <c r="C91" s="43" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="29"/>
@@ -10800,11 +10814,11 @@
       <c r="AX91" s="29"/>
       <c r="AY91" s="30"/>
       <c r="AZ91" s="31"/>
-      <c r="BA91" s="53"/>
-      <c r="BB91" s="53"/>
-      <c r="BC91" s="53"/>
-      <c r="BD91" s="53"/>
-      <c r="BE91" s="53"/>
+      <c r="BA91" s="29"/>
+      <c r="BB91" s="45"/>
+      <c r="BC91" s="45"/>
+      <c r="BD91" s="45"/>
+      <c r="BE91" s="29"/>
       <c r="BF91" s="30"/>
       <c r="BG91" s="31"/>
       <c r="BH91" s="29"/>
@@ -10814,7 +10828,7 @@
       <c r="BL91" s="29"/>
       <c r="BM91" s="30"/>
       <c r="BN91" s="31"/>
-      <c r="BQ91" s="38"/>
+      <c r="BQ91" s="29"/>
       <c r="BR91" s="29"/>
       <c r="BS91" s="29"/>
       <c r="BT91" s="30"/>
@@ -10827,13 +10841,10 @@
       <c r="CA91" s="30"/>
       <c r="CB91" s="31"/>
     </row>
-    <row r="92" spans="1:80" ht="15" customHeight="1">
-      <c r="A92" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="68" t="s">
-        <v>98</v>
+    <row r="92" spans="2:80" ht="15" customHeight="1">
+      <c r="B92" s="67"/>
+      <c r="C92" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="29"/>
@@ -10887,20 +10898,18 @@
       <c r="BA92" s="29"/>
       <c r="BB92" s="29"/>
       <c r="BC92" s="29"/>
-      <c r="BD92" s="29"/>
+      <c r="BD92" s="45"/>
       <c r="BE92" s="29"/>
       <c r="BF92" s="30"/>
       <c r="BG92" s="31"/>
       <c r="BH92" s="29"/>
       <c r="BI92" s="29"/>
       <c r="BJ92" s="29"/>
-      <c r="BK92" s="53"/>
-      <c r="BL92" s="53"/>
+      <c r="BK92" s="29"/>
+      <c r="BL92" s="29"/>
       <c r="BM92" s="30"/>
       <c r="BN92" s="31"/>
-      <c r="BO92" s="29"/>
-      <c r="BP92" s="29"/>
-      <c r="BQ92" s="38"/>
+      <c r="BQ92" s="29"/>
       <c r="BR92" s="29"/>
       <c r="BS92" s="29"/>
       <c r="BT92" s="30"/>
@@ -10913,11 +10922,10 @@
       <c r="CA92" s="30"/>
       <c r="CB92" s="31"/>
     </row>
-    <row r="93" spans="1:80" ht="15" customHeight="1">
-      <c r="A93" s="42"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="43" t="s">
-        <v>99</v>
+    <row r="93" spans="2:80" ht="15" customHeight="1">
+      <c r="B93" s="67"/>
+      <c r="C93" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="29"/>
@@ -10968,23 +10976,24 @@
       <c r="AX93" s="29"/>
       <c r="AY93" s="30"/>
       <c r="AZ93" s="31"/>
-      <c r="BA93" s="53"/>
-      <c r="BB93" s="53"/>
-      <c r="BC93" s="53"/>
-      <c r="BD93" s="53"/>
-      <c r="BE93" s="53"/>
+      <c r="BA93" s="63"/>
+      <c r="BB93" s="63"/>
+      <c r="BC93" s="63"/>
+      <c r="BD93" s="63"/>
+      <c r="BE93" s="63"/>
       <c r="BF93" s="30"/>
       <c r="BG93" s="31"/>
-      <c r="BH93" s="29"/>
-      <c r="BI93" s="29"/>
-      <c r="BJ93" s="29"/>
-      <c r="BK93" s="29"/>
-      <c r="BL93" s="29"/>
+      <c r="BH93" s="63"/>
+      <c r="BI93" s="63"/>
+      <c r="BJ93" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK93" s="63"/>
       <c r="BM93" s="30"/>
       <c r="BN93" s="31"/>
       <c r="BO93" s="29"/>
       <c r="BP93" s="29"/>
-      <c r="BQ93" s="38"/>
+      <c r="BQ93" s="29"/>
       <c r="BR93" s="29"/>
       <c r="BS93" s="29"/>
       <c r="BT93" s="30"/>
@@ -10997,11 +11006,10 @@
       <c r="CA93" s="30"/>
       <c r="CB93" s="31"/>
     </row>
-    <row r="94" spans="1:80" ht="15" customHeight="1">
-      <c r="A94" s="42"/>
-      <c r="B94" s="71"/>
+    <row r="94" spans="2:80" ht="15" customHeight="1">
+      <c r="B94" s="67"/>
       <c r="C94" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="29"/>
@@ -11052,11 +11060,11 @@
       <c r="AX94" s="29"/>
       <c r="AY94" s="30"/>
       <c r="AZ94" s="31"/>
-      <c r="BA94" s="53"/>
-      <c r="BB94" s="53"/>
-      <c r="BC94" s="53"/>
-      <c r="BD94" s="53"/>
-      <c r="BE94" s="53"/>
+      <c r="BA94" s="29"/>
+      <c r="BB94" s="29"/>
+      <c r="BC94" s="29"/>
+      <c r="BD94" s="29"/>
+      <c r="BE94" s="29"/>
       <c r="BF94" s="30"/>
       <c r="BG94" s="31"/>
       <c r="BH94" s="29"/>
@@ -11068,7 +11076,7 @@
       <c r="BN94" s="31"/>
       <c r="BO94" s="29"/>
       <c r="BP94" s="29"/>
-      <c r="BQ94" s="38"/>
+      <c r="BQ94" s="29"/>
       <c r="BR94" s="29"/>
       <c r="BS94" s="29"/>
       <c r="BT94" s="30"/>
@@ -11081,11 +11089,10 @@
       <c r="CA94" s="30"/>
       <c r="CB94" s="31"/>
     </row>
-    <row r="95" spans="1:80" ht="15" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="71"/>
+    <row r="95" spans="2:80" ht="15" customHeight="1">
+      <c r="B95" s="67"/>
       <c r="C95" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="29"/>
@@ -11136,11 +11143,11 @@
       <c r="AX95" s="29"/>
       <c r="AY95" s="30"/>
       <c r="AZ95" s="31"/>
-      <c r="BA95" s="53"/>
-      <c r="BB95" s="53"/>
-      <c r="BC95" s="53"/>
-      <c r="BD95" s="53"/>
-      <c r="BE95" s="53"/>
+      <c r="BA95" s="29"/>
+      <c r="BB95" s="29"/>
+      <c r="BC95" s="29"/>
+      <c r="BD95" s="29"/>
+      <c r="BE95" s="29"/>
       <c r="BF95" s="30"/>
       <c r="BG95" s="31"/>
       <c r="BH95" s="29"/>
@@ -11152,7 +11159,7 @@
       <c r="BN95" s="31"/>
       <c r="BO95" s="29"/>
       <c r="BP95" s="29"/>
-      <c r="BQ95" s="38"/>
+      <c r="BQ95" s="29"/>
       <c r="BR95" s="29"/>
       <c r="BS95" s="29"/>
       <c r="BT95" s="30"/>
@@ -11165,11 +11172,10 @@
       <c r="CA95" s="30"/>
       <c r="CB95" s="31"/>
     </row>
-    <row r="96" spans="1:80" ht="15" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="71"/>
+    <row r="96" spans="2:80" ht="15" customHeight="1">
+      <c r="B96" s="67"/>
       <c r="C96" s="43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="29"/>
@@ -11220,11 +11226,11 @@
       <c r="AX96" s="29"/>
       <c r="AY96" s="30"/>
       <c r="AZ96" s="31"/>
-      <c r="BA96" s="53"/>
-      <c r="BB96" s="53"/>
-      <c r="BC96" s="53"/>
-      <c r="BD96" s="53"/>
-      <c r="BE96" s="53"/>
+      <c r="BA96" s="29"/>
+      <c r="BB96" s="29"/>
+      <c r="BC96" s="29"/>
+      <c r="BD96" s="29"/>
+      <c r="BE96" s="29"/>
       <c r="BF96" s="30"/>
       <c r="BG96" s="31"/>
       <c r="BH96" s="29"/>
@@ -11236,7 +11242,7 @@
       <c r="BN96" s="31"/>
       <c r="BO96" s="29"/>
       <c r="BP96" s="29"/>
-      <c r="BQ96" s="38"/>
+      <c r="BQ96" s="29"/>
       <c r="BR96" s="29"/>
       <c r="BS96" s="29"/>
       <c r="BT96" s="30"/>
@@ -11249,11 +11255,10 @@
       <c r="CA96" s="30"/>
       <c r="CB96" s="31"/>
     </row>
-    <row r="97" spans="1:80" ht="15" customHeight="1">
-      <c r="A97" s="42"/>
-      <c r="B97" s="71"/>
+    <row r="97" spans="1:110" ht="15" customHeight="1">
+      <c r="B97" s="67"/>
       <c r="C97" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="29"/>
@@ -11304,11 +11309,11 @@
       <c r="AX97" s="29"/>
       <c r="AY97" s="30"/>
       <c r="AZ97" s="31"/>
-      <c r="BA97" s="53"/>
-      <c r="BB97" s="53"/>
-      <c r="BC97" s="53"/>
-      <c r="BD97" s="53"/>
-      <c r="BE97" s="53"/>
+      <c r="BA97" s="29"/>
+      <c r="BB97" s="29"/>
+      <c r="BC97" s="29"/>
+      <c r="BD97" s="29"/>
+      <c r="BE97" s="29"/>
       <c r="BF97" s="30"/>
       <c r="BG97" s="31"/>
       <c r="BH97" s="29"/>
@@ -11320,7 +11325,7 @@
       <c r="BN97" s="31"/>
       <c r="BO97" s="29"/>
       <c r="BP97" s="29"/>
-      <c r="BQ97" s="38"/>
+      <c r="BQ97" s="29"/>
       <c r="BR97" s="29"/>
       <c r="BS97" s="29"/>
       <c r="BT97" s="30"/>
@@ -11333,9 +11338,11 @@
       <c r="CA97" s="30"/>
       <c r="CB97" s="31"/>
     </row>
-    <row r="98" spans="1:80" ht="15" customHeight="1">
-      <c r="A98" s="42"/>
-      <c r="B98" s="71"/>
+    <row r="98" spans="1:110" ht="15" customHeight="1">
+      <c r="B98" s="67"/>
+      <c r="C98" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="D98" s="5"/>
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
@@ -11382,6 +11389,7 @@
       <c r="AU98" s="29"/>
       <c r="AV98" s="29"/>
       <c r="AW98" s="29"/>
+      <c r="AX98" s="29"/>
       <c r="AY98" s="30"/>
       <c r="AZ98" s="31"/>
       <c r="BA98" s="29"/>
@@ -11400,7 +11408,7 @@
       <c r="BN98" s="31"/>
       <c r="BO98" s="29"/>
       <c r="BP98" s="29"/>
-      <c r="BQ98" s="38"/>
+      <c r="BQ98" s="29"/>
       <c r="BR98" s="29"/>
       <c r="BS98" s="29"/>
       <c r="BT98" s="30"/>
@@ -11413,9 +11421,11 @@
       <c r="CA98" s="30"/>
       <c r="CB98" s="31"/>
     </row>
-    <row r="99" spans="1:80" ht="15" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="71"/>
+    <row r="99" spans="1:110" ht="15" customHeight="1">
+      <c r="B99" s="67"/>
+      <c r="C99" s="62" t="s">
+        <v>95</v>
+      </c>
       <c r="D99" s="5"/>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
@@ -11462,7 +11472,6 @@
       <c r="AU99" s="29"/>
       <c r="AV99" s="29"/>
       <c r="AW99" s="29"/>
-      <c r="AX99" s="29"/>
       <c r="AY99" s="30"/>
       <c r="AZ99" s="31"/>
       <c r="BA99" s="29"/>
@@ -11472,18 +11481,18 @@
       <c r="BE99" s="29"/>
       <c r="BF99" s="30"/>
       <c r="BG99" s="31"/>
-      <c r="BH99" s="29"/>
-      <c r="BI99" s="29"/>
-      <c r="BJ99" s="29"/>
-      <c r="BK99" s="29"/>
-      <c r="BL99" s="29"/>
+      <c r="BH99" s="63"/>
+      <c r="BI99" s="63"/>
+      <c r="BJ99" s="63"/>
+      <c r="BK99" s="63"/>
+      <c r="BL99" s="63"/>
       <c r="BM99" s="30"/>
       <c r="BN99" s="31"/>
-      <c r="BO99" s="29"/>
-      <c r="BP99" s="29"/>
-      <c r="BQ99" s="38"/>
-      <c r="BR99" s="29"/>
-      <c r="BS99" s="29"/>
+      <c r="BO99" s="63"/>
+      <c r="BP99" s="63"/>
+      <c r="BQ99" s="63"/>
+      <c r="BR99" s="63"/>
+      <c r="BS99" s="63"/>
       <c r="BT99" s="30"/>
       <c r="BU99" s="38"/>
       <c r="BV99" s="29"/>
@@ -11494,9 +11503,11 @@
       <c r="CA99" s="30"/>
       <c r="CB99" s="31"/>
     </row>
-    <row r="100" spans="1:80" ht="15" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="B100" s="71"/>
+    <row r="100" spans="1:110" ht="15" customHeight="1">
+      <c r="B100" s="67"/>
+      <c r="C100" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="D100" s="5"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29"/>
@@ -11543,7 +11554,6 @@
       <c r="AU100" s="29"/>
       <c r="AV100" s="29"/>
       <c r="AW100" s="29"/>
-      <c r="AX100" s="29"/>
       <c r="AY100" s="30"/>
       <c r="AZ100" s="31"/>
       <c r="BA100" s="29"/>
@@ -11553,18 +11563,18 @@
       <c r="BE100" s="29"/>
       <c r="BF100" s="30"/>
       <c r="BG100" s="31"/>
-      <c r="BH100" s="29"/>
-      <c r="BI100" s="29"/>
-      <c r="BJ100" s="29"/>
-      <c r="BK100" s="29"/>
-      <c r="BL100" s="29"/>
+      <c r="BH100" s="45"/>
+      <c r="BI100" s="45"/>
+      <c r="BJ100" s="45"/>
+      <c r="BK100" s="45"/>
+      <c r="BL100" s="45"/>
       <c r="BM100" s="30"/>
       <c r="BN100" s="31"/>
-      <c r="BO100" s="29"/>
-      <c r="BP100" s="29"/>
-      <c r="BQ100" s="38"/>
-      <c r="BR100" s="29"/>
-      <c r="BS100" s="29"/>
+      <c r="BO100" s="45"/>
+      <c r="BP100" s="45"/>
+      <c r="BQ100" s="45"/>
+      <c r="BR100" s="45"/>
+      <c r="BS100" s="45"/>
       <c r="BT100" s="30"/>
       <c r="BU100" s="38"/>
       <c r="BV100" s="29"/>
@@ -11575,9 +11585,11 @@
       <c r="CA100" s="30"/>
       <c r="CB100" s="31"/>
     </row>
-    <row r="101" spans="1:80" ht="15" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="B101" s="71"/>
+    <row r="101" spans="1:110" ht="15" customHeight="1">
+      <c r="B101" s="67"/>
+      <c r="C101" s="43" t="s">
+        <v>97</v>
+      </c>
       <c r="D101" s="5"/>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -11624,7 +11636,6 @@
       <c r="AU101" s="29"/>
       <c r="AV101" s="29"/>
       <c r="AW101" s="29"/>
-      <c r="AX101" s="29"/>
       <c r="AY101" s="30"/>
       <c r="AZ101" s="31"/>
       <c r="BA101" s="29"/>
@@ -11643,7 +11654,7 @@
       <c r="BN101" s="31"/>
       <c r="BO101" s="29"/>
       <c r="BP101" s="29"/>
-      <c r="BQ101" s="38"/>
+      <c r="BQ101" s="29"/>
       <c r="BR101" s="29"/>
       <c r="BS101" s="29"/>
       <c r="BT101" s="30"/>
@@ -11656,11 +11667,10 @@
       <c r="CA101" s="30"/>
       <c r="CB101" s="31"/>
     </row>
-    <row r="102" spans="1:80" ht="15" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="74" t="s">
-        <v>104</v>
+    <row r="102" spans="1:110" ht="15" customHeight="1">
+      <c r="B102" s="67"/>
+      <c r="C102" s="43" t="s">
+        <v>98</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="29"/>
@@ -11708,7 +11718,6 @@
       <c r="AU102" s="29"/>
       <c r="AV102" s="29"/>
       <c r="AW102" s="29"/>
-      <c r="AX102" s="29"/>
       <c r="AY102" s="30"/>
       <c r="AZ102" s="31"/>
       <c r="BA102" s="29"/>
@@ -11727,7 +11736,7 @@
       <c r="BN102" s="31"/>
       <c r="BO102" s="29"/>
       <c r="BP102" s="29"/>
-      <c r="BQ102" s="38"/>
+      <c r="BQ102" s="29"/>
       <c r="BR102" s="29"/>
       <c r="BS102" s="29"/>
       <c r="BT102" s="30"/>
@@ -11740,11 +11749,10 @@
       <c r="CA102" s="30"/>
       <c r="CB102" s="31"/>
     </row>
-    <row r="103" spans="1:80" ht="15" customHeight="1">
-      <c r="A103" s="42"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="75" t="s">
-        <v>105</v>
+    <row r="103" spans="1:110" ht="15" customHeight="1">
+      <c r="B103" s="67"/>
+      <c r="C103" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="29"/>
@@ -11797,9 +11805,9 @@
       <c r="AZ103" s="31"/>
       <c r="BA103" s="29"/>
       <c r="BB103" s="29"/>
-      <c r="BC103" s="76"/>
-      <c r="BD103" s="76"/>
-      <c r="BE103" s="76"/>
+      <c r="BC103" s="29"/>
+      <c r="BD103" s="29"/>
+      <c r="BE103" s="29"/>
       <c r="BF103" s="30"/>
       <c r="BG103" s="31"/>
       <c r="BH103" s="29"/>
@@ -11811,7 +11819,7 @@
       <c r="BN103" s="31"/>
       <c r="BO103" s="29"/>
       <c r="BP103" s="29"/>
-      <c r="BQ103" s="38"/>
+      <c r="BQ103" s="29"/>
       <c r="BR103" s="29"/>
       <c r="BS103" s="29"/>
       <c r="BT103" s="30"/>
@@ -11824,11 +11832,10 @@
       <c r="CA103" s="30"/>
       <c r="CB103" s="31"/>
     </row>
-    <row r="104" spans="1:80" ht="15" customHeight="1">
-      <c r="A104" s="42"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="75" t="s">
-        <v>106</v>
+    <row r="104" spans="1:110" ht="15" customHeight="1">
+      <c r="B104" s="67"/>
+      <c r="C104" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="29"/>
@@ -11883,7 +11890,7 @@
       <c r="BB104" s="29"/>
       <c r="BC104" s="29"/>
       <c r="BD104" s="29"/>
-      <c r="BE104" s="76"/>
+      <c r="BE104" s="29"/>
       <c r="BF104" s="30"/>
       <c r="BG104" s="31"/>
       <c r="BH104" s="29"/>
@@ -11895,7 +11902,7 @@
       <c r="BN104" s="31"/>
       <c r="BO104" s="29"/>
       <c r="BP104" s="29"/>
-      <c r="BQ104" s="38"/>
+      <c r="BQ104" s="29"/>
       <c r="BR104" s="29"/>
       <c r="BS104" s="29"/>
       <c r="BT104" s="30"/>
@@ -11908,12 +11915,8 @@
       <c r="CA104" s="30"/>
       <c r="CB104" s="31"/>
     </row>
-    <row r="105" spans="1:80" ht="15" customHeight="1">
-      <c r="A105" s="42"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="75" t="s">
-        <v>107</v>
-      </c>
+    <row r="105" spans="1:110" ht="15" customHeight="1">
+      <c r="B105" s="67"/>
       <c r="D105" s="5"/>
       <c r="E105" s="29"/>
       <c r="F105" s="29"/>
@@ -11979,7 +11982,7 @@
       <c r="BN105" s="31"/>
       <c r="BO105" s="29"/>
       <c r="BP105" s="29"/>
-      <c r="BQ105" s="38"/>
+      <c r="BQ105" s="29"/>
       <c r="BR105" s="29"/>
       <c r="BS105" s="29"/>
       <c r="BT105" s="30"/>
@@ -11992,12 +11995,12 @@
       <c r="CA105" s="30"/>
       <c r="CB105" s="31"/>
     </row>
-    <row r="106" spans="1:80" ht="15" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="75" t="s">
-        <v>108</v>
-      </c>
+    <row r="106" spans="1:110" ht="15" customHeight="1">
+      <c r="B106" s="67"/>
+      <c r="C106" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" s="5"/>
       <c r="E106" s="29"/>
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
@@ -12048,9 +12051,9 @@
       <c r="AZ106" s="31"/>
       <c r="BA106" s="29"/>
       <c r="BB106" s="29"/>
-      <c r="BC106" s="29"/>
-      <c r="BD106" s="29"/>
-      <c r="BE106" s="29"/>
+      <c r="BC106" s="69"/>
+      <c r="BD106" s="69"/>
+      <c r="BE106" s="69"/>
       <c r="BF106" s="30"/>
       <c r="BG106" s="31"/>
       <c r="BH106" s="29"/>
@@ -12060,24 +12063,27 @@
       <c r="BL106" s="29"/>
       <c r="BM106" s="30"/>
       <c r="BN106" s="31"/>
-      <c r="BO106" s="29"/>
-      <c r="BP106" s="29"/>
-      <c r="BQ106" s="38"/>
-      <c r="BR106" s="29"/>
-      <c r="BS106" s="29"/>
+      <c r="BO106" s="69"/>
+      <c r="BP106" s="69"/>
+      <c r="BQ106" s="69"/>
+      <c r="BR106" s="69"/>
+      <c r="BS106" s="69"/>
       <c r="BT106" s="30"/>
       <c r="BU106" s="38"/>
-      <c r="BV106" s="29"/>
-      <c r="BW106" s="29"/>
-      <c r="BX106" s="29"/>
+      <c r="BV106" s="69"/>
+      <c r="BW106" s="69"/>
+      <c r="BX106" s="69"/>
       <c r="BY106" s="29"/>
       <c r="BZ106" s="38"/>
       <c r="CA106" s="30"/>
       <c r="CB106" s="31"/>
     </row>
-    <row r="107" spans="1:80">
-      <c r="A107" s="42"/>
-      <c r="B107" s="71"/>
+    <row r="107" spans="1:110" ht="15" customHeight="1">
+      <c r="B107" s="67"/>
+      <c r="C107" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="29"/>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -12128,9 +12134,9 @@
       <c r="AZ107" s="31"/>
       <c r="BA107" s="29"/>
       <c r="BB107" s="29"/>
-      <c r="BC107" s="29"/>
-      <c r="BD107" s="29"/>
-      <c r="BE107" s="29"/>
+      <c r="BC107" s="71"/>
+      <c r="BD107" s="71"/>
+      <c r="BE107" s="71"/>
       <c r="BF107" s="30"/>
       <c r="BG107" s="31"/>
       <c r="BH107" s="29"/>
@@ -12140,9 +12146,10 @@
       <c r="BL107" s="29"/>
       <c r="BM107" s="30"/>
       <c r="BN107" s="31"/>
-      <c r="BO107" s="29"/>
-      <c r="BP107" s="29"/>
-      <c r="BQ107" s="38"/>
+      <c r="BO107" s="71"/>
+      <c r="BP107" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="BR107" s="29"/>
       <c r="BS107" s="29"/>
       <c r="BT107" s="30"/>
@@ -12155,9 +12162,12 @@
       <c r="CA107" s="30"/>
       <c r="CB107" s="31"/>
     </row>
-    <row r="108" spans="1:80">
-      <c r="A108" s="42"/>
-      <c r="B108" s="71"/>
+    <row r="108" spans="1:110" ht="15" customHeight="1">
+      <c r="B108" s="67"/>
+      <c r="C108" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="5"/>
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
@@ -12210,7 +12220,7 @@
       <c r="BB108" s="29"/>
       <c r="BC108" s="29"/>
       <c r="BD108" s="29"/>
-      <c r="BE108" s="29"/>
+      <c r="BE108" s="71"/>
       <c r="BF108" s="30"/>
       <c r="BG108" s="31"/>
       <c r="BH108" s="29"/>
@@ -12222,9 +12232,11 @@
       <c r="BN108" s="31"/>
       <c r="BO108" s="29"/>
       <c r="BP108" s="29"/>
-      <c r="BQ108" s="38"/>
-      <c r="BR108" s="29"/>
-      <c r="BS108" s="29"/>
+      <c r="BQ108" s="71"/>
+      <c r="BR108" s="71"/>
+      <c r="BS108" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="BT108" s="30"/>
       <c r="BU108" s="38"/>
       <c r="BV108" s="29"/>
@@ -12235,9 +12247,12 @@
       <c r="CA108" s="30"/>
       <c r="CB108" s="31"/>
     </row>
-    <row r="109" spans="1:80">
-      <c r="A109" s="42"/>
-      <c r="B109" s="71"/>
+    <row r="109" spans="1:110" ht="15" customHeight="1">
+      <c r="B109" s="67"/>
+      <c r="C109" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="5"/>
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -12302,9 +12317,11 @@
       <c r="BN109" s="31"/>
       <c r="BO109" s="29"/>
       <c r="BP109" s="29"/>
-      <c r="BQ109" s="38"/>
-      <c r="BR109" s="29"/>
-      <c r="BS109" s="29"/>
+      <c r="BQ109" s="71"/>
+      <c r="BR109" s="71"/>
+      <c r="BS109" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="BT109" s="30"/>
       <c r="BU109" s="38"/>
       <c r="BV109" s="29"/>
@@ -12315,9 +12332,11 @@
       <c r="CA109" s="30"/>
       <c r="CB109" s="31"/>
     </row>
-    <row r="110" spans="1:80">
-      <c r="A110" s="42"/>
-      <c r="B110" s="71"/>
+    <row r="110" spans="1:110" ht="15" customHeight="1">
+      <c r="B110" s="67"/>
+      <c r="C110" s="70" t="s">
+        <v>105</v>
+      </c>
       <c r="E110" s="29"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
@@ -12382,21 +12401,23 @@
       <c r="BN110" s="31"/>
       <c r="BO110" s="29"/>
       <c r="BP110" s="29"/>
-      <c r="BQ110" s="38"/>
+      <c r="BQ110" s="29"/>
       <c r="BR110" s="29"/>
-      <c r="BS110" s="29"/>
+      <c r="BS110" s="71"/>
       <c r="BT110" s="30"/>
       <c r="BU110" s="38"/>
-      <c r="BV110" s="29"/>
-      <c r="BW110" s="29"/>
-      <c r="BX110" s="29"/>
+      <c r="BV110" s="71"/>
+      <c r="BW110" s="71"/>
+      <c r="BX110" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="BY110" s="29"/>
       <c r="BZ110" s="38"/>
       <c r="CA110" s="30"/>
       <c r="CB110" s="31"/>
     </row>
-    <row r="111" spans="1:80">
-      <c r="B111" s="71"/>
+    <row r="111" spans="1:110">
+      <c r="B111" s="67"/>
       <c r="E111" s="29"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -12461,7 +12482,7 @@
       <c r="BN111" s="31"/>
       <c r="BO111" s="29"/>
       <c r="BP111" s="29"/>
-      <c r="BQ111" s="38"/>
+      <c r="BQ111" s="29"/>
       <c r="BR111" s="29"/>
       <c r="BS111" s="29"/>
       <c r="BT111" s="30"/>
@@ -12474,266 +12495,238 @@
       <c r="CA111" s="30"/>
       <c r="CB111" s="31"/>
     </row>
-    <row r="112" spans="1:80">
-      <c r="B112" s="71"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="31"/>
-      <c r="R112" s="29"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="29"/>
-      <c r="U112" s="29"/>
-      <c r="V112" s="37"/>
-      <c r="W112" s="30"/>
-      <c r="X112" s="31"/>
-      <c r="Y112" s="29"/>
-      <c r="Z112" s="29"/>
-      <c r="AA112" s="29"/>
-      <c r="AB112" s="29"/>
-      <c r="AC112" s="37"/>
-      <c r="AD112" s="30"/>
-      <c r="AE112" s="31"/>
-      <c r="AF112" s="29"/>
-      <c r="AG112" s="29"/>
-      <c r="AH112" s="37"/>
-      <c r="AI112" s="29"/>
-      <c r="AJ112" s="29"/>
-      <c r="AK112" s="30"/>
-      <c r="AL112" s="31"/>
-      <c r="AM112" s="29"/>
-      <c r="AN112" s="29"/>
-      <c r="AO112" s="29"/>
-      <c r="AP112" s="29"/>
-      <c r="AQ112" s="29"/>
-      <c r="AR112" s="30"/>
-      <c r="AS112" s="31"/>
-      <c r="AT112" s="29"/>
-      <c r="AU112" s="29"/>
-      <c r="AV112" s="29"/>
-      <c r="AW112" s="29"/>
-      <c r="AX112" s="29"/>
-      <c r="AY112" s="30"/>
-      <c r="AZ112" s="31"/>
-      <c r="BA112" s="29"/>
-      <c r="BB112" s="29"/>
-      <c r="BC112" s="29"/>
-      <c r="BD112" s="29"/>
-      <c r="BE112" s="29"/>
-      <c r="BF112" s="30"/>
-      <c r="BG112" s="31"/>
-      <c r="BH112" s="29"/>
-      <c r="BI112" s="29"/>
-      <c r="BJ112" s="29"/>
-      <c r="BK112" s="29"/>
-      <c r="BL112" s="29"/>
-      <c r="BM112" s="30"/>
-      <c r="BN112" s="31"/>
-      <c r="BO112" s="29"/>
-      <c r="BP112" s="29"/>
-      <c r="BQ112" s="38"/>
-      <c r="BR112" s="29"/>
-      <c r="BS112" s="29"/>
-      <c r="BT112" s="30"/>
-      <c r="BU112" s="38"/>
-      <c r="BV112" s="29"/>
-      <c r="BW112" s="29"/>
-      <c r="BX112" s="29"/>
-      <c r="BY112" s="29"/>
-      <c r="BZ112" s="38"/>
-      <c r="CA112" s="30"/>
-      <c r="CB112" s="31"/>
+    <row r="112" spans="1:110" s="2" customFormat="1">
+      <c r="A112" s="1"/>
+      <c r="C112"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+      <c r="AD112" s="3"/>
+      <c r="AE112" s="3"/>
+      <c r="AF112" s="3"/>
+      <c r="AG112" s="3"/>
+      <c r="AH112" s="3"/>
+      <c r="AI112" s="3"/>
+      <c r="AJ112" s="3"/>
+      <c r="AK112" s="3"/>
+      <c r="AL112" s="3"/>
+      <c r="AM112" s="3"/>
+      <c r="AN112"/>
+      <c r="AO112"/>
+      <c r="AP112"/>
+      <c r="AQ112"/>
+      <c r="AR112"/>
+      <c r="AS112"/>
+      <c r="AT112"/>
+      <c r="AU112"/>
+      <c r="AV112"/>
+      <c r="AW112"/>
+      <c r="AX112"/>
+      <c r="AY112"/>
+      <c r="AZ112"/>
+      <c r="BA112"/>
+      <c r="BB112"/>
+      <c r="BC112"/>
+      <c r="BD112"/>
+      <c r="BE112"/>
+      <c r="BF112"/>
+      <c r="BG112"/>
+      <c r="BH112"/>
+      <c r="BI112"/>
+      <c r="BJ112"/>
+      <c r="BK112"/>
+      <c r="BL112"/>
+      <c r="BM112"/>
+      <c r="BN112"/>
+      <c r="BO112"/>
+      <c r="BP112"/>
+      <c r="BQ112"/>
+      <c r="BR112"/>
+      <c r="BS112"/>
+      <c r="BT112"/>
+      <c r="BU112"/>
+      <c r="BV112"/>
+      <c r="BW112"/>
+      <c r="BX112"/>
+      <c r="BY112"/>
+      <c r="BZ112"/>
+      <c r="CA112"/>
+      <c r="CB112"/>
+      <c r="CC112"/>
+      <c r="CD112"/>
+      <c r="CE112"/>
+      <c r="CF112"/>
+      <c r="CG112"/>
+      <c r="CH112"/>
+      <c r="CI112"/>
+      <c r="CJ112"/>
+      <c r="CK112"/>
+      <c r="CL112"/>
+      <c r="CM112"/>
+      <c r="CN112"/>
+      <c r="CO112"/>
+      <c r="CP112"/>
+      <c r="CQ112"/>
+      <c r="CR112"/>
+      <c r="CS112"/>
+      <c r="CT112"/>
+      <c r="CU112"/>
+      <c r="CV112"/>
+      <c r="CW112"/>
+      <c r="CX112"/>
+      <c r="CY112"/>
+      <c r="CZ112"/>
+      <c r="DA112"/>
+      <c r="DB112"/>
+      <c r="DC112"/>
+      <c r="DD112"/>
+      <c r="DE112"/>
+      <c r="DF112"/>
     </row>
-    <row r="113" spans="2:80">
-      <c r="B113" s="71"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
-      <c r="P113" s="30"/>
-      <c r="Q113" s="31"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29"/>
-      <c r="T113" s="29"/>
-      <c r="U113" s="29"/>
-      <c r="V113" s="37"/>
-      <c r="W113" s="30"/>
-      <c r="X113" s="31"/>
-      <c r="Y113" s="29"/>
-      <c r="Z113" s="29"/>
-      <c r="AA113" s="29"/>
-      <c r="AB113" s="29"/>
-      <c r="AC113" s="37"/>
-      <c r="AD113" s="30"/>
-      <c r="AE113" s="31"/>
-      <c r="AF113" s="29"/>
-      <c r="AG113" s="29"/>
-      <c r="AH113" s="37"/>
-      <c r="AI113" s="29"/>
-      <c r="AJ113" s="29"/>
-      <c r="AK113" s="30"/>
-      <c r="AL113" s="31"/>
-      <c r="AM113" s="29"/>
-      <c r="AN113" s="29"/>
-      <c r="AO113" s="29"/>
-      <c r="AP113" s="29"/>
-      <c r="AQ113" s="29"/>
-      <c r="AR113" s="30"/>
-      <c r="AS113" s="31"/>
-      <c r="AT113" s="29"/>
-      <c r="AU113" s="29"/>
-      <c r="AV113" s="29"/>
-      <c r="AW113" s="29"/>
-      <c r="AX113" s="29"/>
-      <c r="AY113" s="30"/>
-      <c r="AZ113" s="31"/>
-      <c r="BA113" s="29"/>
-      <c r="BB113" s="29"/>
-      <c r="BC113" s="29"/>
-      <c r="BD113" s="29"/>
-      <c r="BE113" s="29"/>
-      <c r="BF113" s="30"/>
-      <c r="BG113" s="31"/>
-      <c r="BH113" s="29"/>
-      <c r="BI113" s="29"/>
-      <c r="BJ113" s="29"/>
-      <c r="BK113" s="29"/>
-      <c r="BL113" s="29"/>
-      <c r="BM113" s="30"/>
-      <c r="BN113" s="31"/>
-      <c r="BO113" s="29"/>
-      <c r="BP113" s="29"/>
-      <c r="BQ113" s="38"/>
-      <c r="BR113" s="29"/>
-      <c r="BS113" s="29"/>
-      <c r="BT113" s="30"/>
-      <c r="BU113" s="38"/>
-      <c r="BV113" s="29"/>
-      <c r="BW113" s="29"/>
-      <c r="BX113" s="29"/>
-      <c r="BY113" s="29"/>
-      <c r="BZ113" s="38"/>
-      <c r="CA113" s="30"/>
-      <c r="CB113" s="31"/>
-    </row>
-    <row r="114" spans="2:80">
-      <c r="B114" s="71"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
-      <c r="P114" s="30"/>
-      <c r="Q114" s="31"/>
-      <c r="R114" s="29"/>
-      <c r="S114" s="29"/>
-      <c r="T114" s="29"/>
-      <c r="U114" s="29"/>
-      <c r="V114" s="37"/>
-      <c r="W114" s="30"/>
-      <c r="X114" s="31"/>
-      <c r="Y114" s="29"/>
-      <c r="Z114" s="29"/>
-      <c r="AA114" s="29"/>
-      <c r="AB114" s="29"/>
-      <c r="AC114" s="37"/>
-      <c r="AD114" s="30"/>
-      <c r="AE114" s="31"/>
-      <c r="AF114" s="29"/>
-      <c r="AG114" s="29"/>
-      <c r="AH114" s="37"/>
-      <c r="AI114" s="29"/>
-      <c r="AJ114" s="29"/>
-      <c r="AK114" s="30"/>
-      <c r="AL114" s="31"/>
-      <c r="AM114" s="29"/>
-      <c r="AN114" s="29"/>
-      <c r="AO114" s="29"/>
-      <c r="AP114" s="29"/>
-      <c r="AQ114" s="29"/>
-      <c r="AR114" s="30"/>
-      <c r="AS114" s="31"/>
-      <c r="AT114" s="29"/>
-      <c r="AU114" s="29"/>
-      <c r="AV114" s="29"/>
-      <c r="AW114" s="29"/>
-      <c r="AX114" s="29"/>
-      <c r="AY114" s="30"/>
-      <c r="AZ114" s="31"/>
-      <c r="BA114" s="29"/>
-      <c r="BB114" s="29"/>
-      <c r="BC114" s="29"/>
-      <c r="BD114" s="29"/>
-      <c r="BE114" s="29"/>
-      <c r="BF114" s="30"/>
-      <c r="BG114" s="31"/>
-      <c r="BH114" s="29"/>
-      <c r="BI114" s="29"/>
-      <c r="BJ114" s="29"/>
-      <c r="BK114" s="29"/>
-      <c r="BL114" s="29"/>
-      <c r="BM114" s="30"/>
-      <c r="BN114" s="31"/>
-      <c r="BO114" s="29"/>
-      <c r="BP114" s="29"/>
-      <c r="BQ114" s="38"/>
-      <c r="BR114" s="29"/>
-      <c r="BS114" s="29"/>
-      <c r="BT114" s="30"/>
-      <c r="BU114" s="38"/>
-      <c r="BV114" s="29"/>
-      <c r="BW114" s="29"/>
-      <c r="BX114" s="29"/>
-      <c r="BY114" s="29"/>
-      <c r="BZ114" s="38"/>
-      <c r="CA114" s="30"/>
-      <c r="CB114" s="31"/>
-    </row>
-    <row r="115" spans="2:80">
-      <c r="B115" s="71"/>
-    </row>
-    <row r="116" spans="2:80">
-      <c r="B116" s="71"/>
-    </row>
-    <row r="117" spans="2:80">
-      <c r="B117" s="71"/>
-    </row>
-    <row r="118" spans="2:80">
-      <c r="B118" s="71"/>
+    <row r="113" spans="1:110" s="2" customFormat="1">
+      <c r="A113" s="1"/>
+      <c r="C113"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+      <c r="AG113" s="3"/>
+      <c r="AH113" s="3"/>
+      <c r="AI113" s="3"/>
+      <c r="AJ113" s="3"/>
+      <c r="AK113" s="3"/>
+      <c r="AL113" s="3"/>
+      <c r="AM113" s="3"/>
+      <c r="AN113"/>
+      <c r="AO113"/>
+      <c r="AP113"/>
+      <c r="AQ113"/>
+      <c r="AR113"/>
+      <c r="AS113"/>
+      <c r="AT113"/>
+      <c r="AU113"/>
+      <c r="AV113"/>
+      <c r="AW113"/>
+      <c r="AX113"/>
+      <c r="AY113"/>
+      <c r="AZ113"/>
+      <c r="BA113"/>
+      <c r="BB113"/>
+      <c r="BC113"/>
+      <c r="BD113"/>
+      <c r="BE113"/>
+      <c r="BF113"/>
+      <c r="BG113"/>
+      <c r="BH113"/>
+      <c r="BI113"/>
+      <c r="BJ113"/>
+      <c r="BK113"/>
+      <c r="BL113"/>
+      <c r="BM113"/>
+      <c r="BN113"/>
+      <c r="BO113"/>
+      <c r="BP113"/>
+      <c r="BQ113"/>
+      <c r="BR113"/>
+      <c r="BS113"/>
+      <c r="BT113"/>
+      <c r="BU113"/>
+      <c r="BV113"/>
+      <c r="BW113"/>
+      <c r="BX113"/>
+      <c r="BY113"/>
+      <c r="BZ113"/>
+      <c r="CA113"/>
+      <c r="CB113"/>
+      <c r="CC113"/>
+      <c r="CD113"/>
+      <c r="CE113"/>
+      <c r="CF113"/>
+      <c r="CG113"/>
+      <c r="CH113"/>
+      <c r="CI113"/>
+      <c r="CJ113"/>
+      <c r="CK113"/>
+      <c r="CL113"/>
+      <c r="CM113"/>
+      <c r="CN113"/>
+      <c r="CO113"/>
+      <c r="CP113"/>
+      <c r="CQ113"/>
+      <c r="CR113"/>
+      <c r="CS113"/>
+      <c r="CT113"/>
+      <c r="CU113"/>
+      <c r="CV113"/>
+      <c r="CW113"/>
+      <c r="CX113"/>
+      <c r="CY113"/>
+      <c r="CZ113"/>
+      <c r="DA113"/>
+      <c r="DB113"/>
+      <c r="DC113"/>
+      <c r="DD113"/>
+      <c r="DE113"/>
+      <c r="DF113"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B85:B118"/>
+  <mergeCells count="18">
+    <mergeCell ref="B83:B111"/>
     <mergeCell ref="AT6:AZ6"/>
     <mergeCell ref="BA6:BG6"/>
     <mergeCell ref="BH6:BN6"/>
     <mergeCell ref="BO6:BU6"/>
     <mergeCell ref="BV6:CB6"/>
-    <mergeCell ref="BQ11:BQ114"/>
-    <mergeCell ref="BU11:BU114"/>
-    <mergeCell ref="BZ11:BZ114"/>
+    <mergeCell ref="BU13:BU111"/>
+    <mergeCell ref="BZ13:BZ111"/>
     <mergeCell ref="D2:CB2"/>
     <mergeCell ref="D4:AB4"/>
     <mergeCell ref="AC4:BG4"/>
